--- a/BackTest/2020-01-19 BackTest BTC.xlsx
+++ b/BackTest/2020-01-19 BackTest BTC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>44.13820995999999</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>42.69270995999999</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>9979000</v>
@@ -523,7 +523,7 @@
         <v>43.86120995999999</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>9967000</v>
@@ -562,7 +562,7 @@
         <v>44.27610995999999</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>9975000</v>
@@ -601,7 +601,7 @@
         <v>43.13768766999999</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>9980000</v>
@@ -640,7 +640,7 @@
         <v>44.83208766999999</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>9975000</v>
@@ -679,7 +679,7 @@
         <v>39.74610875999999</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>9984000</v>
@@ -718,7 +718,7 @@
         <v>53.86562984999999</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>9983000</v>
@@ -757,9 +757,11 @@
         <v>46.20021960999999</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>9991000</v>
+      </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr">
         <is>
@@ -794,7 +796,7 @@
         <v>42.75871960999999</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>9987000</v>
@@ -833,7 +835,7 @@
         <v>55.60521960999999</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>9983000</v>
@@ -872,7 +874,7 @@
         <v>55.60521960999999</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>10000000</v>
@@ -911,9 +913,11 @@
         <v>52.58361960999999</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>10000000</v>
+      </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr">
         <is>
@@ -948,7 +952,7 @@
         <v>53.55101960999999</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>9995000</v>
@@ -1024,11 +1028,9 @@
         <v>52.04221960999999</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
-      </c>
-      <c r="I17" t="n">
-        <v>9997000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr">
         <is>
@@ -1063,7 +1065,7 @@
         <v>55.10941960999999</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
         <v>9998000</v>
@@ -1102,7 +1104,7 @@
         <v>55.10941960999999</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
         <v>10000000</v>
@@ -1141,7 +1143,7 @@
         <v>53.42431960999999</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
         <v>10000000</v>
@@ -1180,7 +1182,7 @@
         <v>52.05181960999999</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>9997000</v>
@@ -1219,7 +1221,7 @@
         <v>62.60012050999999</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>9992000</v>
@@ -1258,7 +1260,7 @@
         <v>57.73662050999999</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
         <v>10000000</v>
@@ -1297,7 +1299,7 @@
         <v>59.91922050999999</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
         <v>9996000</v>
@@ -1336,7 +1338,7 @@
         <v>66.34272050999999</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
         <v>9999000</v>
@@ -1375,7 +1377,7 @@
         <v>66.34272050999999</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
         <v>10000000</v>
@@ -1414,7 +1416,7 @@
         <v>72.63522051</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
         <v>10000000</v>
@@ -1453,7 +1455,7 @@
         <v>71.25252051</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
         <v>10014000</v>
@@ -1492,7 +1494,7 @@
         <v>77.01612050999999</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
         <v>10001000</v>
@@ -1531,9 +1533,11 @@
         <v>83.14591909999999</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I30" t="n">
+        <v>10006000</v>
+      </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr">
         <is>
@@ -1568,9 +1572,11 @@
         <v>80.56751909999998</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I31" t="n">
+        <v>10018000</v>
+      </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr">
         <is>
@@ -1605,9 +1611,11 @@
         <v>80.56751909999998</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I32" t="n">
+        <v>10009000</v>
+      </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr">
         <is>
@@ -1642,7 +1650,7 @@
         <v>82.86881909999998</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
         <v>10009000</v>
@@ -1681,9 +1689,11 @@
         <v>82.27989234999998</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I34" t="n">
+        <v>10014000</v>
+      </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr">
         <is>
@@ -1718,9 +1728,11 @@
         <v>84.44127005999998</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I35" t="n">
+        <v>10005000</v>
+      </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr">
         <is>
@@ -1829,9 +1841,11 @@
         <v>86.59998089999998</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I38" t="n">
+        <v>10008000</v>
+      </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr">
         <is>
@@ -1903,9 +1917,11 @@
         <v>85.58658089999997</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I40" t="n">
+        <v>10008000</v>
+      </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr">
         <is>
@@ -1940,9 +1956,11 @@
         <v>89.13098089999997</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I41" t="n">
+        <v>10008000</v>
+      </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr">
         <is>
@@ -2088,9 +2106,11 @@
         <v>92.22073134999997</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I45" t="n">
+        <v>10014000</v>
+      </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr">
         <is>
@@ -2125,9 +2145,11 @@
         <v>90.33357573999997</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>10029000</v>
+      </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr">
         <is>
@@ -10043,16 +10065,18 @@
         <v>119.51320566</v>
       </c>
       <c r="H260" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
       <c r="K260" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L260" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L260" t="n">
+        <v>1</v>
+      </c>
       <c r="M260" t="inlineStr"/>
     </row>
     <row r="261">
@@ -10078,11 +10102,15 @@
         <v>118.46540566</v>
       </c>
       <c r="H261" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -10115,7 +10143,11 @@
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -10144,11 +10176,15 @@
         <v>121.49330012</v>
       </c>
       <c r="H263" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -10177,11 +10213,15 @@
         <v>113.06970012</v>
       </c>
       <c r="H264" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -10210,11 +10250,15 @@
         <v>111.52450012</v>
       </c>
       <c r="H265" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -10247,7 +10291,11 @@
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -10280,7 +10328,11 @@
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -10313,7 +10365,11 @@
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -10346,7 +10402,11 @@
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -10379,7 +10439,11 @@
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -10412,7 +10476,11 @@
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -10445,7 +10513,11 @@
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -10478,7 +10550,11 @@
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -10511,7 +10587,11 @@
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -10544,7 +10624,11 @@
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -10577,7 +10661,11 @@
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -10610,7 +10698,11 @@
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -10643,7 +10735,11 @@
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -10676,7 +10772,11 @@
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -10709,7 +10809,11 @@
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -10742,7 +10846,11 @@
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -10775,7 +10883,11 @@
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -10808,7 +10920,11 @@
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -10841,7 +10957,11 @@
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -10874,7 +10994,11 @@
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -10907,7 +11031,11 @@
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -10940,7 +11068,11 @@
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -10973,7 +11105,11 @@
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -11006,7 +11142,11 @@
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -11039,7 +11179,11 @@
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -11072,7 +11216,11 @@
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -11105,7 +11253,11 @@
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -11138,7 +11290,11 @@
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -11171,7 +11327,11 @@
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -11204,7 +11364,11 @@
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -11237,7 +11401,11 @@
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -11270,7 +11438,11 @@
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -11303,7 +11475,11 @@
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -11336,7 +11512,11 @@
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -11369,7 +11549,11 @@
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -11402,7 +11586,11 @@
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -11435,7 +11623,11 @@
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -11468,7 +11660,11 @@
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -11501,7 +11697,11 @@
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -11534,7 +11734,11 @@
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -11567,7 +11771,11 @@
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -11600,7 +11808,11 @@
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -11633,7 +11845,11 @@
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -11666,7 +11882,11 @@
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -11699,7 +11919,11 @@
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -11732,7 +11956,11 @@
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -11765,7 +11993,11 @@
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -11798,7 +12030,11 @@
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -11831,7 +12067,11 @@
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -11864,7 +12104,11 @@
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -11897,7 +12141,11 @@
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -11930,7 +12178,11 @@
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -11963,7 +12215,11 @@
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -11996,7 +12252,11 @@
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -12029,7 +12289,11 @@
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -12062,7 +12326,11 @@
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -12095,7 +12363,11 @@
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -12128,7 +12400,11 @@
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -12161,7 +12437,11 @@
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -12194,7 +12474,11 @@
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -12227,7 +12511,11 @@
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -12260,7 +12548,11 @@
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -12293,7 +12585,11 @@
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -12326,7 +12622,11 @@
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -12359,7 +12659,11 @@
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -12392,7 +12696,11 @@
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -12425,7 +12733,11 @@
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -12458,7 +12770,11 @@
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -12491,7 +12807,11 @@
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -12524,7 +12844,11 @@
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -12557,7 +12881,11 @@
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -12590,7 +12918,11 @@
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -12623,7 +12955,11 @@
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -12656,7 +12992,11 @@
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -12689,7 +13029,11 @@
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -12722,7 +13066,11 @@
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -12755,7 +13103,11 @@
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -12788,7 +13140,11 @@
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -12821,7 +13177,11 @@
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -12854,7 +13214,11 @@
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -12887,7 +13251,11 @@
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -12920,7 +13288,11 @@
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -12953,7 +13325,11 @@
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -12986,7 +13362,11 @@
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -13019,7 +13399,11 @@
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -13052,7 +13436,11 @@
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -13085,7 +13473,11 @@
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -13118,7 +13510,11 @@
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -13151,7 +13547,11 @@
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -13184,7 +13584,11 @@
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -13217,7 +13621,11 @@
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -13250,7 +13658,11 @@
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -13283,7 +13695,11 @@
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -13316,7 +13732,11 @@
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -13349,7 +13769,11 @@
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
+      <c r="K360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -13382,7 +13806,11 @@
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr"/>
+      <c r="K361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -13415,7 +13843,11 @@
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
+      <c r="K362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -13448,7 +13880,11 @@
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
+      <c r="K363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -13481,7 +13917,11 @@
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
+      <c r="K364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -13514,7 +13954,11 @@
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
+      <c r="K365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -13547,7 +13991,11 @@
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
+      <c r="K366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -13580,7 +14028,11 @@
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
+      <c r="K367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -13613,7 +14065,11 @@
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
+      <c r="K368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -13646,7 +14102,11 @@
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
+      <c r="K369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -13679,7 +14139,11 @@
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
+      <c r="K370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -13712,7 +14176,11 @@
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
+      <c r="K371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -13745,7 +14213,11 @@
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
+      <c r="K372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -13778,7 +14250,11 @@
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr"/>
+      <c r="K373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -13811,7 +14287,11 @@
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
+      <c r="K374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -13844,7 +14324,11 @@
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr"/>
+      <c r="K375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -13877,7 +14361,11 @@
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr"/>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -13910,7 +14398,11 @@
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr"/>
+      <c r="K377" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -13943,7 +14435,11 @@
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr"/>
+      <c r="K378" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -13976,7 +14472,11 @@
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr"/>
+      <c r="K379" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -14009,7 +14509,11 @@
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr"/>
+      <c r="K380" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -14042,7 +14546,11 @@
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr"/>
+      <c r="K381" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -14075,7 +14583,11 @@
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr"/>
+      <c r="K382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -14108,7 +14620,11 @@
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr"/>
+      <c r="K383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -14141,7 +14657,11 @@
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr"/>
+      <c r="K384" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -14174,7 +14694,11 @@
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr"/>
+      <c r="K385" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -14207,7 +14731,11 @@
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr"/>
+      <c r="K386" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -14240,7 +14768,11 @@
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr"/>
+      <c r="K387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -14273,7 +14805,11 @@
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr"/>
+      <c r="K388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -14306,7 +14842,11 @@
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr"/>
+      <c r="K389" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -14339,7 +14879,11 @@
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr"/>
+      <c r="K390" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -14372,7 +14916,11 @@
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr"/>
+      <c r="K391" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -14405,7 +14953,11 @@
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr"/>
+      <c r="K392" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -14438,7 +14990,11 @@
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr"/>
+      <c r="K393" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -14471,7 +15027,11 @@
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr"/>
+      <c r="K394" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -14504,7 +15064,11 @@
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr"/>
+      <c r="K395" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -14537,7 +15101,11 @@
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr"/>
+      <c r="K396" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -14570,7 +15138,11 @@
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr"/>
+      <c r="K397" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -14603,7 +15175,11 @@
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr"/>
+      <c r="K398" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -14636,7 +15212,11 @@
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr"/>
+      <c r="K399" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -14669,7 +15249,11 @@
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr"/>
+      <c r="K400" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -14702,7 +15286,11 @@
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr"/>
+      <c r="K401" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -14735,7 +15323,11 @@
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr"/>
+      <c r="K402" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -14768,7 +15360,11 @@
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr"/>
+      <c r="K403" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -14801,7 +15397,11 @@
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr"/>
+      <c r="K404" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -14834,7 +15434,11 @@
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr"/>
+      <c r="K405" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -14867,7 +15471,11 @@
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr"/>
+      <c r="K406" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -14900,7 +15508,11 @@
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr"/>
+      <c r="K407" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -14933,7 +15545,11 @@
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr"/>
+      <c r="K408" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -14966,7 +15582,11 @@
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr"/>
+      <c r="K409" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -14999,7 +15619,11 @@
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr"/>
+      <c r="K410" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -15032,7 +15656,11 @@
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr"/>
+      <c r="K411" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -15065,7 +15693,11 @@
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr"/>
+      <c r="K412" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -15098,7 +15730,11 @@
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr"/>
+      <c r="K413" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -15131,7 +15767,11 @@
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr"/>
+      <c r="K414" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -15164,7 +15804,11 @@
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr"/>
+      <c r="K415" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -15197,7 +15841,11 @@
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr"/>
+      <c r="K416" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -15230,7 +15878,11 @@
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr"/>
+      <c r="K417" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -15263,7 +15915,11 @@
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr"/>
+      <c r="K418" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -15296,7 +15952,11 @@
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr"/>
+      <c r="K419" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -15329,7 +15989,11 @@
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr"/>
+      <c r="K420" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -15362,7 +16026,11 @@
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr"/>
+      <c r="K421" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -15395,7 +16063,11 @@
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr"/>
+      <c r="K422" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -15428,7 +16100,11 @@
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr"/>
+      <c r="K423" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -15461,7 +16137,11 @@
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr"/>
+      <c r="K424" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -15494,7 +16174,11 @@
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr"/>
+      <c r="K425" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -15527,7 +16211,11 @@
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr"/>
+      <c r="K426" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -15560,7 +16248,11 @@
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr"/>
+      <c r="K427" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -15593,7 +16285,11 @@
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr"/>
+      <c r="K428" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -15626,7 +16322,11 @@
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr"/>
+      <c r="K429" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -15659,7 +16359,11 @@
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr"/>
+      <c r="K430" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -15692,7 +16396,11 @@
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr"/>
+      <c r="K431" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -15725,7 +16433,11 @@
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr"/>
+      <c r="K432" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -15758,7 +16470,11 @@
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr"/>
+      <c r="K433" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -15791,7 +16507,11 @@
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr"/>
+      <c r="K434" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -15824,7 +16544,11 @@
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr"/>
+      <c r="K435" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -15857,7 +16581,11 @@
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr"/>
+      <c r="K436" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -15890,7 +16618,11 @@
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr"/>
+      <c r="K437" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -15923,7 +16655,11 @@
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr"/>
+      <c r="K438" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -15956,7 +16692,11 @@
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr"/>
+      <c r="K439" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -15989,7 +16729,11 @@
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr"/>
+      <c r="K440" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -16022,7 +16766,11 @@
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr"/>
+      <c r="K441" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -16055,7 +16803,11 @@
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr"/>
+      <c r="K442" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -16088,7 +16840,11 @@
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr"/>
+      <c r="K443" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -16121,7 +16877,11 @@
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr"/>
+      <c r="K444" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -16154,7 +16914,11 @@
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr"/>
+      <c r="K445" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -16187,7 +16951,11 @@
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr"/>
+      <c r="K446" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -16220,7 +16988,11 @@
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr"/>
+      <c r="K447" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -16253,7 +17025,11 @@
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr"/>
+      <c r="K448" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -16286,7 +17062,11 @@
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr"/>
+      <c r="K449" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -16319,7 +17099,11 @@
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
-      <c r="K450" t="inlineStr"/>
+      <c r="K450" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -16352,7 +17136,11 @@
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
-      <c r="K451" t="inlineStr"/>
+      <c r="K451" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -16385,7 +17173,11 @@
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
-      <c r="K452" t="inlineStr"/>
+      <c r="K452" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -16418,7 +17210,11 @@
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
-      <c r="K453" t="inlineStr"/>
+      <c r="K453" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -16451,7 +17247,11 @@
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
-      <c r="K454" t="inlineStr"/>
+      <c r="K454" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -16484,7 +17284,11 @@
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
-      <c r="K455" t="inlineStr"/>
+      <c r="K455" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -16517,7 +17321,11 @@
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr"/>
+      <c r="K456" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -16550,7 +17358,11 @@
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr"/>
+      <c r="K457" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -16583,7 +17395,11 @@
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
-      <c r="K458" t="inlineStr"/>
+      <c r="K458" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -16616,7 +17432,11 @@
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr"/>
+      <c r="K459" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -16649,7 +17469,11 @@
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr"/>
+      <c r="K460" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -16682,7 +17506,11 @@
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr"/>
+      <c r="K461" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -16715,7 +17543,11 @@
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
-      <c r="K462" t="inlineStr"/>
+      <c r="K462" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -16748,7 +17580,11 @@
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
-      <c r="K463" t="inlineStr"/>
+      <c r="K463" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -16781,7 +17617,11 @@
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr"/>
+      <c r="K464" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -16814,7 +17654,11 @@
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
-      <c r="K465" t="inlineStr"/>
+      <c r="K465" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -16847,7 +17691,11 @@
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
-      <c r="K466" t="inlineStr"/>
+      <c r="K466" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -16880,7 +17728,11 @@
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
-      <c r="K467" t="inlineStr"/>
+      <c r="K467" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -16913,7 +17765,11 @@
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
-      <c r="K468" t="inlineStr"/>
+      <c r="K468" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -16946,7 +17802,11 @@
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
-      <c r="K469" t="inlineStr"/>
+      <c r="K469" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -16979,7 +17839,11 @@
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
-      <c r="K470" t="inlineStr"/>
+      <c r="K470" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -17012,7 +17876,11 @@
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
-      <c r="K471" t="inlineStr"/>
+      <c r="K471" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -17045,7 +17913,11 @@
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
-      <c r="K472" t="inlineStr"/>
+      <c r="K472" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -17078,7 +17950,11 @@
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
-      <c r="K473" t="inlineStr"/>
+      <c r="K473" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -17111,7 +17987,11 @@
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
-      <c r="K474" t="inlineStr"/>
+      <c r="K474" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -17144,7 +18024,11 @@
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
-      <c r="K475" t="inlineStr"/>
+      <c r="K475" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -17177,7 +18061,11 @@
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
-      <c r="K476" t="inlineStr"/>
+      <c r="K476" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -17210,7 +18098,11 @@
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
-      <c r="K477" t="inlineStr"/>
+      <c r="K477" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -17243,7 +18135,11 @@
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
-      <c r="K478" t="inlineStr"/>
+      <c r="K478" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -17276,7 +18172,11 @@
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
-      <c r="K479" t="inlineStr"/>
+      <c r="K479" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -17309,7 +18209,11 @@
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
-      <c r="K480" t="inlineStr"/>
+      <c r="K480" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -17342,7 +18246,11 @@
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
-      <c r="K481" t="inlineStr"/>
+      <c r="K481" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -17375,7 +18283,11 @@
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
-      <c r="K482" t="inlineStr"/>
+      <c r="K482" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -17408,7 +18320,11 @@
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
-      <c r="K483" t="inlineStr"/>
+      <c r="K483" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -17441,7 +18357,11 @@
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
-      <c r="K484" t="inlineStr"/>
+      <c r="K484" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -17474,7 +18394,11 @@
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
-      <c r="K485" t="inlineStr"/>
+      <c r="K485" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -17507,7 +18431,11 @@
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
-      <c r="K486" t="inlineStr"/>
+      <c r="K486" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -17540,7 +18468,11 @@
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
-      <c r="K487" t="inlineStr"/>
+      <c r="K487" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -17573,7 +18505,11 @@
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
-      <c r="K488" t="inlineStr"/>
+      <c r="K488" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -17606,7 +18542,11 @@
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
-      <c r="K489" t="inlineStr"/>
+      <c r="K489" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -17639,7 +18579,11 @@
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
-      <c r="K490" t="inlineStr"/>
+      <c r="K490" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -17672,7 +18616,11 @@
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
-      <c r="K491" t="inlineStr"/>
+      <c r="K491" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L491" t="n">
         <v>1</v>
       </c>
@@ -17705,7 +18653,11 @@
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
-      <c r="K492" t="inlineStr"/>
+      <c r="K492" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L492" t="n">
         <v>1</v>
       </c>
@@ -17738,7 +18690,11 @@
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
-      <c r="K493" t="inlineStr"/>
+      <c r="K493" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L493" t="n">
         <v>1</v>
       </c>
@@ -17771,7 +18727,11 @@
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
-      <c r="K494" t="inlineStr"/>
+      <c r="K494" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L494" t="n">
         <v>1</v>
       </c>
@@ -17804,7 +18764,11 @@
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
-      <c r="K495" t="inlineStr"/>
+      <c r="K495" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L495" t="n">
         <v>1</v>
       </c>
@@ -17837,7 +18801,11 @@
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
-      <c r="K496" t="inlineStr"/>
+      <c r="K496" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L496" t="n">
         <v>1</v>
       </c>
@@ -17870,7 +18838,11 @@
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
-      <c r="K497" t="inlineStr"/>
+      <c r="K497" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L497" t="n">
         <v>1</v>
       </c>
@@ -17903,7 +18875,11 @@
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
-      <c r="K498" t="inlineStr"/>
+      <c r="K498" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L498" t="n">
         <v>1</v>
       </c>
@@ -17936,7 +18912,11 @@
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
-      <c r="K499" t="inlineStr"/>
+      <c r="K499" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L499" t="n">
         <v>1</v>
       </c>
@@ -17969,7 +18949,11 @@
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
-      <c r="K500" t="inlineStr"/>
+      <c r="K500" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L500" t="n">
         <v>1</v>
       </c>
@@ -18002,7 +18986,11 @@
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
-      <c r="K501" t="inlineStr"/>
+      <c r="K501" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L501" t="n">
         <v>1</v>
       </c>
@@ -18035,7 +19023,11 @@
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
-      <c r="K502" t="inlineStr"/>
+      <c r="K502" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L502" t="n">
         <v>1</v>
       </c>
@@ -18068,7 +19060,11 @@
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
-      <c r="K503" t="inlineStr"/>
+      <c r="K503" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L503" t="n">
         <v>1</v>
       </c>
@@ -18101,7 +19097,11 @@
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
-      <c r="K504" t="inlineStr"/>
+      <c r="K504" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L504" t="n">
         <v>1</v>
       </c>
@@ -18134,7 +19134,11 @@
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
-      <c r="K505" t="inlineStr"/>
+      <c r="K505" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L505" t="n">
         <v>1</v>
       </c>
@@ -18167,7 +19171,11 @@
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
-      <c r="K506" t="inlineStr"/>
+      <c r="K506" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L506" t="n">
         <v>1</v>
       </c>
@@ -18200,7 +19208,11 @@
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
-      <c r="K507" t="inlineStr"/>
+      <c r="K507" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L507" t="n">
         <v>1</v>
       </c>
@@ -18233,7 +19245,11 @@
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
-      <c r="K508" t="inlineStr"/>
+      <c r="K508" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L508" t="n">
         <v>1</v>
       </c>
@@ -18266,7 +19282,11 @@
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
-      <c r="K509" t="inlineStr"/>
+      <c r="K509" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L509" t="n">
         <v>1</v>
       </c>
@@ -18299,7 +19319,11 @@
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
-      <c r="K510" t="inlineStr"/>
+      <c r="K510" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L510" t="n">
         <v>1</v>
       </c>
@@ -18332,7 +19356,11 @@
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
-      <c r="K511" t="inlineStr"/>
+      <c r="K511" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L511" t="n">
         <v>1</v>
       </c>
@@ -18365,7 +19393,11 @@
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
-      <c r="K512" t="inlineStr"/>
+      <c r="K512" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L512" t="n">
         <v>1</v>
       </c>
@@ -18398,7 +19430,11 @@
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
-      <c r="K513" t="inlineStr"/>
+      <c r="K513" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L513" t="n">
         <v>1</v>
       </c>
@@ -18431,7 +19467,11 @@
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
-      <c r="K514" t="inlineStr"/>
+      <c r="K514" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L514" t="n">
         <v>1</v>
       </c>
@@ -18464,7 +19504,11 @@
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
-      <c r="K515" t="inlineStr"/>
+      <c r="K515" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L515" t="n">
         <v>1</v>
       </c>
@@ -18497,7 +19541,11 @@
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
-      <c r="K516" t="inlineStr"/>
+      <c r="K516" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L516" t="n">
         <v>1</v>
       </c>
@@ -18530,7 +19578,11 @@
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
-      <c r="K517" t="inlineStr"/>
+      <c r="K517" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L517" t="n">
         <v>1</v>
       </c>
@@ -18563,7 +19615,11 @@
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
-      <c r="K518" t="inlineStr"/>
+      <c r="K518" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L518" t="n">
         <v>1</v>
       </c>
@@ -18596,7 +19652,11 @@
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
-      <c r="K519" t="inlineStr"/>
+      <c r="K519" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L519" t="n">
         <v>1</v>
       </c>
@@ -18629,7 +19689,11 @@
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
-      <c r="K520" t="inlineStr"/>
+      <c r="K520" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L520" t="n">
         <v>1</v>
       </c>
@@ -18662,7 +19726,11 @@
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
-      <c r="K521" t="inlineStr"/>
+      <c r="K521" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L521" t="n">
         <v>1</v>
       </c>
@@ -18695,7 +19763,11 @@
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
-      <c r="K522" t="inlineStr"/>
+      <c r="K522" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L522" t="n">
         <v>1</v>
       </c>
@@ -18728,7 +19800,11 @@
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
-      <c r="K523" t="inlineStr"/>
+      <c r="K523" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L523" t="n">
         <v>1</v>
       </c>
@@ -18761,7 +19837,11 @@
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
-      <c r="K524" t="inlineStr"/>
+      <c r="K524" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L524" t="n">
         <v>1</v>
       </c>
@@ -18794,7 +19874,11 @@
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
-      <c r="K525" t="inlineStr"/>
+      <c r="K525" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L525" t="n">
         <v>1</v>
       </c>
@@ -18827,7 +19911,11 @@
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
-      <c r="K526" t="inlineStr"/>
+      <c r="K526" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L526" t="n">
         <v>1</v>
       </c>
@@ -18856,11 +19944,15 @@
         <v>187.1998671099999</v>
       </c>
       <c r="H527" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
-      <c r="K527" t="inlineStr"/>
+      <c r="K527" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L527" t="n">
         <v>1</v>
       </c>
@@ -18893,7 +19985,11 @@
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
-      <c r="K528" t="inlineStr"/>
+      <c r="K528" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L528" t="n">
         <v>1</v>
       </c>
@@ -18926,7 +20022,11 @@
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
-      <c r="K529" t="inlineStr"/>
+      <c r="K529" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L529" t="n">
         <v>1</v>
       </c>
@@ -18959,7 +20059,11 @@
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
-      <c r="K530" t="inlineStr"/>
+      <c r="K530" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L530" t="n">
         <v>1</v>
       </c>
@@ -18992,7 +20096,11 @@
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
-      <c r="K531" t="inlineStr"/>
+      <c r="K531" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L531" t="n">
         <v>1</v>
       </c>
@@ -19025,7 +20133,11 @@
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
-      <c r="K532" t="inlineStr"/>
+      <c r="K532" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L532" t="n">
         <v>1</v>
       </c>
@@ -19054,11 +20166,15 @@
         <v>188.6810874099999</v>
       </c>
       <c r="H533" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
-      <c r="K533" t="inlineStr"/>
+      <c r="K533" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L533" t="n">
         <v>1</v>
       </c>
@@ -19087,11 +20203,15 @@
         <v>184.0544873999999</v>
       </c>
       <c r="H534" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
-      <c r="K534" t="inlineStr"/>
+      <c r="K534" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L534" t="n">
         <v>1</v>
       </c>
@@ -19120,11 +20240,15 @@
         <v>186.3219874</v>
       </c>
       <c r="H535" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
-      <c r="K535" t="inlineStr"/>
+      <c r="K535" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L535" t="n">
         <v>1</v>
       </c>
@@ -19153,11 +20277,15 @@
         <v>184.1819766</v>
       </c>
       <c r="H536" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
-      <c r="K536" t="inlineStr"/>
+      <c r="K536" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L536" t="n">
         <v>1</v>
       </c>
@@ -19186,11 +20314,15 @@
         <v>190.1922766</v>
       </c>
       <c r="H537" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
-      <c r="K537" t="inlineStr"/>
+      <c r="K537" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L537" t="n">
         <v>1</v>
       </c>
@@ -19219,11 +20351,15 @@
         <v>194.7803766</v>
       </c>
       <c r="H538" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
-      <c r="K538" t="inlineStr"/>
+      <c r="K538" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L538" t="n">
         <v>1</v>
       </c>
@@ -19252,11 +20388,15 @@
         <v>194.7803766</v>
       </c>
       <c r="H539" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
-      <c r="K539" t="inlineStr"/>
+      <c r="K539" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L539" t="n">
         <v>1</v>
       </c>
@@ -19289,7 +20429,11 @@
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
-      <c r="K540" t="inlineStr"/>
+      <c r="K540" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L540" t="n">
         <v>1</v>
       </c>
@@ -19318,11 +20462,15 @@
         <v>193.7837766</v>
       </c>
       <c r="H541" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
-      <c r="K541" t="inlineStr"/>
+      <c r="K541" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L541" t="n">
         <v>1</v>
       </c>
@@ -19355,7 +20503,11 @@
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
-      <c r="K542" t="inlineStr"/>
+      <c r="K542" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L542" t="n">
         <v>1</v>
       </c>
@@ -19384,14 +20536,16 @@
         <v>193.7837766</v>
       </c>
       <c r="H543" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
-      <c r="K543" t="inlineStr"/>
-      <c r="L543" t="n">
-        <v>1</v>
-      </c>
+      <c r="K543" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L543" t="inlineStr"/>
       <c r="M543" t="inlineStr"/>
     </row>
     <row r="544">
@@ -19417,7 +20571,7 @@
         <v>194.6197697599999</v>
       </c>
       <c r="H544" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
@@ -19450,7 +20604,7 @@
         <v>192.7760375499999</v>
       </c>
       <c r="H545" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
@@ -19483,7 +20637,7 @@
         <v>198.8655375499999</v>
       </c>
       <c r="H546" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
@@ -19516,7 +20670,7 @@
         <v>201.9093331099999</v>
       </c>
       <c r="H547" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
@@ -19549,7 +20703,7 @@
         <v>208.0945609699999</v>
       </c>
       <c r="H548" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
@@ -19582,7 +20736,7 @@
         <v>204.3690314599999</v>
       </c>
       <c r="H549" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
@@ -19615,7 +20769,7 @@
         <v>215.4051260399999</v>
       </c>
       <c r="H550" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
@@ -19648,7 +20802,7 @@
         <v>220.9084245599999</v>
       </c>
       <c r="H551" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
@@ -19681,7 +20835,7 @@
         <v>220.9084245599999</v>
       </c>
       <c r="H552" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
@@ -19714,7 +20868,7 @@
         <v>218.8511245599999</v>
       </c>
       <c r="H553" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
@@ -19747,7 +20901,7 @@
         <v>216.1318245599999</v>
       </c>
       <c r="H554" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
@@ -19780,7 +20934,7 @@
         <v>217.0562169599999</v>
       </c>
       <c r="H555" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
@@ -19813,7 +20967,7 @@
         <v>213.6979923499999</v>
       </c>
       <c r="H556" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
@@ -19846,7 +21000,7 @@
         <v>210.4811923499999</v>
       </c>
       <c r="H557" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
@@ -19879,7 +21033,7 @@
         <v>208.8764923499999</v>
       </c>
       <c r="H558" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
@@ -19912,7 +21066,7 @@
         <v>210.8231021699999</v>
       </c>
       <c r="H559" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
@@ -19945,7 +21099,7 @@
         <v>209.1323094899999</v>
       </c>
       <c r="H560" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
@@ -19978,7 +21132,7 @@
         <v>214.8042168099999</v>
       </c>
       <c r="H561" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
@@ -20011,7 +21165,7 @@
         <v>210.6937787099999</v>
       </c>
       <c r="H562" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
@@ -20044,7 +21198,7 @@
         <v>212.9682787099999</v>
       </c>
       <c r="H563" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
@@ -20077,7 +21231,7 @@
         <v>209.1471787099998</v>
       </c>
       <c r="H564" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
@@ -20110,7 +21264,7 @@
         <v>209.1471787099998</v>
       </c>
       <c r="H565" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
@@ -20143,7 +21297,7 @@
         <v>205.8885787099998</v>
       </c>
       <c r="H566" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="inlineStr"/>
@@ -20176,7 +21330,7 @@
         <v>207.1874787099999</v>
       </c>
       <c r="H567" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="inlineStr"/>
@@ -20209,7 +21363,7 @@
         <v>206.3613012199999</v>
       </c>
       <c r="H568" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="inlineStr"/>
@@ -20242,7 +21396,7 @@
         <v>206.3613012199999</v>
       </c>
       <c r="H569" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr"/>
@@ -20275,7 +21429,7 @@
         <v>207.4645012199998</v>
       </c>
       <c r="H570" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="inlineStr"/>
@@ -20308,7 +21462,7 @@
         <v>206.7013012199998</v>
       </c>
       <c r="H571" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I571" t="inlineStr"/>
       <c r="J571" t="inlineStr"/>
@@ -20341,7 +21495,7 @@
         <v>207.8451012399998</v>
       </c>
       <c r="H572" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="inlineStr"/>
@@ -20374,7 +21528,7 @@
         <v>208.4910752499998</v>
       </c>
       <c r="H573" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I573" t="inlineStr"/>
       <c r="J573" t="inlineStr"/>
@@ -20407,7 +21561,7 @@
         <v>207.2857752499998</v>
       </c>
       <c r="H574" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I574" t="inlineStr"/>
       <c r="J574" t="inlineStr"/>
@@ -20440,7 +21594,7 @@
         <v>209.8205159099998</v>
       </c>
       <c r="H575" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="inlineStr"/>
@@ -20473,7 +21627,7 @@
         <v>210.6741552499998</v>
       </c>
       <c r="H576" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I576" t="inlineStr"/>
       <c r="J576" t="inlineStr"/>
@@ -20506,7 +21660,7 @@
         <v>208.6324552499999</v>
       </c>
       <c r="H577" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I577" t="inlineStr"/>
       <c r="J577" t="inlineStr"/>
@@ -20539,7 +21693,7 @@
         <v>210.4560186799999</v>
       </c>
       <c r="H578" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I578" t="inlineStr"/>
       <c r="J578" t="inlineStr"/>
@@ -20572,7 +21726,7 @@
         <v>209.8692186799998</v>
       </c>
       <c r="H579" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I579" t="inlineStr"/>
       <c r="J579" t="inlineStr"/>
@@ -20605,7 +21759,7 @@
         <v>213.6514186799998</v>
       </c>
       <c r="H580" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I580" t="inlineStr"/>
       <c r="J580" t="inlineStr"/>
@@ -20638,7 +21792,7 @@
         <v>208.0568186799998</v>
       </c>
       <c r="H581" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I581" t="inlineStr"/>
       <c r="J581" t="inlineStr"/>
@@ -20671,7 +21825,7 @@
         <v>209.3423148099998</v>
       </c>
       <c r="H582" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I582" t="inlineStr"/>
       <c r="J582" t="inlineStr"/>
@@ -20704,7 +21858,7 @@
         <v>208.1216148099998</v>
       </c>
       <c r="H583" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I583" t="inlineStr"/>
       <c r="J583" t="inlineStr"/>
@@ -20836,7 +21990,7 @@
         <v>209.4811148099998</v>
       </c>
       <c r="H587" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I587" t="inlineStr"/>
       <c r="J587" t="inlineStr"/>
@@ -20869,7 +22023,7 @@
         <v>206.4839148099998</v>
       </c>
       <c r="H588" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I588" t="inlineStr"/>
       <c r="J588" t="inlineStr"/>
@@ -20902,7 +22056,7 @@
         <v>200.7242643799999</v>
       </c>
       <c r="H589" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I589" t="inlineStr"/>
       <c r="J589" t="inlineStr"/>
@@ -20935,7 +22089,7 @@
         <v>196.7851643799999</v>
       </c>
       <c r="H590" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I590" t="inlineStr"/>
       <c r="J590" t="inlineStr"/>
@@ -20968,7 +22122,7 @@
         <v>195.1745348499998</v>
       </c>
       <c r="H591" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I591" t="inlineStr"/>
       <c r="J591" t="inlineStr"/>
@@ -21001,7 +22155,7 @@
         <v>197.2093348499998</v>
       </c>
       <c r="H592" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I592" t="inlineStr"/>
       <c r="J592" t="inlineStr"/>
@@ -21034,7 +22188,7 @@
         <v>196.0323348499998</v>
       </c>
       <c r="H593" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I593" t="inlineStr"/>
       <c r="J593" t="inlineStr"/>
@@ -21067,7 +22221,7 @@
         <v>186.0235830399998</v>
       </c>
       <c r="H594" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I594" t="inlineStr"/>
       <c r="J594" t="inlineStr"/>
@@ -21100,7 +22254,7 @@
         <v>183.1662830399998</v>
       </c>
       <c r="H595" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I595" t="inlineStr"/>
       <c r="J595" t="inlineStr"/>
@@ -21133,7 +22287,7 @@
         <v>180.0580830399998</v>
       </c>
       <c r="H596" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I596" t="inlineStr"/>
       <c r="J596" t="inlineStr"/>
@@ -21166,7 +22320,7 @@
         <v>180.6619830399998</v>
       </c>
       <c r="H597" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I597" t="inlineStr"/>
       <c r="J597" t="inlineStr"/>
@@ -21199,7 +22353,7 @@
         <v>175.5137237299998</v>
       </c>
       <c r="H598" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I598" t="inlineStr"/>
       <c r="J598" t="inlineStr"/>
@@ -21232,7 +22386,7 @@
         <v>173.2007237299998</v>
       </c>
       <c r="H599" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I599" t="inlineStr"/>
       <c r="J599" t="inlineStr"/>
@@ -21265,7 +22419,7 @@
         <v>163.9812925399998</v>
       </c>
       <c r="H600" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I600" t="inlineStr"/>
       <c r="J600" t="inlineStr"/>
@@ -21298,7 +22452,7 @@
         <v>155.3403925399998</v>
       </c>
       <c r="H601" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I601" t="inlineStr"/>
       <c r="J601" t="inlineStr"/>
@@ -21331,7 +22485,7 @@
         <v>157.3865613499999</v>
       </c>
       <c r="H602" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I602" t="inlineStr"/>
       <c r="J602" t="inlineStr"/>
@@ -21364,7 +22518,7 @@
         <v>163.1235857399998</v>
       </c>
       <c r="H603" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I603" t="inlineStr"/>
       <c r="J603" t="inlineStr"/>
@@ -21397,7 +22551,7 @@
         <v>164.7426857399998</v>
       </c>
       <c r="H604" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I604" t="inlineStr"/>
       <c r="J604" t="inlineStr"/>
@@ -21430,7 +22584,7 @@
         <v>176.9480509899998</v>
       </c>
       <c r="H605" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I605" t="inlineStr"/>
       <c r="J605" t="inlineStr"/>
@@ -21463,7 +22617,7 @@
         <v>167.0664768399998</v>
       </c>
       <c r="H606" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="inlineStr"/>
@@ -21496,7 +22650,7 @@
         <v>173.9390378599998</v>
       </c>
       <c r="H607" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="inlineStr"/>
@@ -21529,7 +22683,7 @@
         <v>171.8745378599998</v>
       </c>
       <c r="H608" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I608" t="inlineStr"/>
       <c r="J608" t="inlineStr"/>
@@ -21562,7 +22716,7 @@
         <v>171.8745378599998</v>
       </c>
       <c r="H609" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I609" t="inlineStr"/>
       <c r="J609" t="inlineStr"/>
@@ -21595,7 +22749,7 @@
         <v>171.8745378599998</v>
       </c>
       <c r="H610" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I610" t="inlineStr"/>
       <c r="J610" t="inlineStr"/>
@@ -21628,7 +22782,7 @@
         <v>171.8745378599998</v>
       </c>
       <c r="H611" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I611" t="inlineStr"/>
       <c r="J611" t="inlineStr"/>
@@ -21661,7 +22815,7 @@
         <v>171.8745378599998</v>
       </c>
       <c r="H612" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I612" t="inlineStr"/>
       <c r="J612" t="inlineStr"/>
@@ -21694,7 +22848,7 @@
         <v>170.3306378599998</v>
       </c>
       <c r="H613" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I613" t="inlineStr"/>
       <c r="J613" t="inlineStr"/>
@@ -21760,7 +22914,7 @@
         <v>173.1744378599998</v>
       </c>
       <c r="H615" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I615" t="inlineStr"/>
       <c r="J615" t="inlineStr"/>
@@ -24169,7 +25323,7 @@
         <v>171.1274058699999</v>
       </c>
       <c r="H688" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I688" t="inlineStr"/>
       <c r="J688" t="inlineStr"/>
@@ -24202,7 +25356,7 @@
         <v>173.0911381499999</v>
       </c>
       <c r="H689" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I689" t="inlineStr"/>
       <c r="J689" t="inlineStr"/>
@@ -24235,7 +25389,7 @@
         <v>174.8104890699999</v>
       </c>
       <c r="H690" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I690" t="inlineStr"/>
       <c r="J690" t="inlineStr"/>
@@ -24268,7 +25422,7 @@
         <v>176.0663058699999</v>
       </c>
       <c r="H691" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I691" t="inlineStr"/>
       <c r="J691" t="inlineStr"/>
@@ -24301,7 +25455,7 @@
         <v>177.7684027399999</v>
       </c>
       <c r="H692" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I692" t="inlineStr"/>
       <c r="J692" t="inlineStr"/>
@@ -24334,7 +25488,7 @@
         <v>175.5539194299999</v>
       </c>
       <c r="H693" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I693" t="inlineStr"/>
       <c r="J693" t="inlineStr"/>
@@ -24367,7 +25521,7 @@
         <v>175.1518194299999</v>
       </c>
       <c r="H694" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I694" t="inlineStr"/>
       <c r="J694" t="inlineStr"/>
@@ -24400,7 +25554,7 @@
         <v>174.4258194299999</v>
       </c>
       <c r="H695" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I695" t="inlineStr"/>
       <c r="J695" t="inlineStr"/>
@@ -24433,7 +25587,7 @@
         <v>175.5376578899999</v>
       </c>
       <c r="H696" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I696" t="inlineStr"/>
       <c r="J696" t="inlineStr"/>
@@ -24466,7 +25620,7 @@
         <v>175.5376578899999</v>
       </c>
       <c r="H697" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I697" t="inlineStr"/>
       <c r="J697" t="inlineStr"/>
@@ -24499,7 +25653,7 @@
         <v>173.0439578899999</v>
       </c>
       <c r="H698" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I698" t="inlineStr"/>
       <c r="J698" t="inlineStr"/>
@@ -24532,7 +25686,7 @@
         <v>166.8100610799999</v>
       </c>
       <c r="H699" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I699" t="inlineStr"/>
       <c r="J699" t="inlineStr"/>
@@ -24565,7 +25719,7 @@
         <v>168.4533610799999</v>
       </c>
       <c r="H700" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I700" t="inlineStr"/>
       <c r="J700" t="inlineStr"/>
@@ -24598,7 +25752,7 @@
         <v>166.2958610799999</v>
       </c>
       <c r="H701" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I701" t="inlineStr"/>
       <c r="J701" t="inlineStr"/>
@@ -24631,7 +25785,7 @@
         <v>166.6555610799999</v>
       </c>
       <c r="H702" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I702" t="inlineStr"/>
       <c r="J702" t="inlineStr"/>
@@ -24664,7 +25818,7 @@
         <v>165.4738769499999</v>
       </c>
       <c r="H703" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I703" t="inlineStr"/>
       <c r="J703" t="inlineStr"/>
@@ -24697,7 +25851,7 @@
         <v>164.6073769499999</v>
       </c>
       <c r="H704" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I704" t="inlineStr"/>
       <c r="J704" t="inlineStr"/>
@@ -24730,7 +25884,7 @@
         <v>165.7122769499999</v>
       </c>
       <c r="H705" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I705" t="inlineStr"/>
       <c r="J705" t="inlineStr"/>
@@ -24796,7 +25950,7 @@
         <v>161.6729735799999</v>
       </c>
       <c r="H707" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I707" t="inlineStr"/>
       <c r="J707" t="inlineStr"/>
@@ -24829,7 +25983,7 @@
         <v>161.9788735799999</v>
       </c>
       <c r="H708" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I708" t="inlineStr"/>
       <c r="J708" t="inlineStr"/>
@@ -24862,7 +26016,7 @@
         <v>162.1052262299999</v>
       </c>
       <c r="H709" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I709" t="inlineStr"/>
       <c r="J709" t="inlineStr"/>
@@ -24895,7 +26049,7 @@
         <v>162.0888262299999</v>
       </c>
       <c r="H710" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I710" t="inlineStr"/>
       <c r="J710" t="inlineStr"/>
@@ -24928,7 +26082,7 @@
         <v>160.8473262299999</v>
       </c>
       <c r="H711" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I711" t="inlineStr"/>
       <c r="J711" t="inlineStr"/>
@@ -24961,7 +26115,7 @@
         <v>160.8473262299999</v>
       </c>
       <c r="H712" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I712" t="inlineStr"/>
       <c r="J712" t="inlineStr"/>
@@ -24994,7 +26148,7 @@
         <v>161.7983262299999</v>
       </c>
       <c r="H713" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I713" t="inlineStr"/>
       <c r="J713" t="inlineStr"/>
@@ -25027,7 +26181,7 @@
         <v>161.7983262299999</v>
       </c>
       <c r="H714" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I714" t="inlineStr"/>
       <c r="J714" t="inlineStr"/>
@@ -25159,7 +26313,7 @@
         <v>160.0110233299999</v>
       </c>
       <c r="H718" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I718" t="inlineStr"/>
       <c r="J718" t="inlineStr"/>
@@ -25192,7 +26346,7 @@
         <v>159.3020233299999</v>
       </c>
       <c r="H719" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I719" t="inlineStr"/>
       <c r="J719" t="inlineStr"/>
@@ -25225,7 +26379,7 @@
         <v>160.4427233299999</v>
       </c>
       <c r="H720" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I720" t="inlineStr"/>
       <c r="J720" t="inlineStr"/>
@@ -25258,7 +26412,7 @@
         <v>155.2009233299999</v>
       </c>
       <c r="H721" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I721" t="inlineStr"/>
       <c r="J721" t="inlineStr"/>
@@ -25291,7 +26445,7 @@
         <v>155.9146233299998</v>
       </c>
       <c r="H722" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I722" t="inlineStr"/>
       <c r="J722" t="inlineStr"/>
@@ -25324,7 +26478,7 @@
         <v>155.7647233299998</v>
       </c>
       <c r="H723" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I723" t="inlineStr"/>
       <c r="J723" t="inlineStr"/>
@@ -25357,7 +26511,7 @@
         <v>155.4514898099998</v>
       </c>
       <c r="H724" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I724" t="inlineStr"/>
       <c r="J724" t="inlineStr"/>
@@ -25390,7 +26544,7 @@
         <v>155.4514898099998</v>
       </c>
       <c r="H725" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I725" t="inlineStr"/>
       <c r="J725" t="inlineStr"/>
@@ -25423,7 +26577,7 @@
         <v>156.0460898099998</v>
       </c>
       <c r="H726" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I726" t="inlineStr"/>
       <c r="J726" t="inlineStr"/>
@@ -25456,7 +26610,7 @@
         <v>157.7596898099999</v>
       </c>
       <c r="H727" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I727" t="inlineStr"/>
       <c r="J727" t="inlineStr"/>
@@ -25489,7 +26643,7 @@
         <v>155.4265926499999</v>
       </c>
       <c r="H728" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I728" t="inlineStr"/>
       <c r="J728" t="inlineStr"/>
@@ -25522,7 +26676,7 @@
         <v>156.0735926499999</v>
       </c>
       <c r="H729" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I729" t="inlineStr"/>
       <c r="J729" t="inlineStr"/>
@@ -25555,7 +26709,7 @@
         <v>157.1147926499999</v>
       </c>
       <c r="H730" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I730" t="inlineStr"/>
       <c r="J730" t="inlineStr"/>
@@ -25588,7 +26742,7 @@
         <v>157.1147926499999</v>
       </c>
       <c r="H731" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I731" t="inlineStr"/>
       <c r="J731" t="inlineStr"/>
@@ -25621,7 +26775,7 @@
         <v>154.3400926499999</v>
       </c>
       <c r="H732" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I732" t="inlineStr"/>
       <c r="J732" t="inlineStr"/>
@@ -25654,7 +26808,7 @@
         <v>153.5672926499999</v>
       </c>
       <c r="H733" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I733" t="inlineStr"/>
       <c r="J733" t="inlineStr"/>
@@ -25687,7 +26841,7 @@
         <v>156.4961926499999</v>
       </c>
       <c r="H734" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I734" t="inlineStr"/>
       <c r="J734" t="inlineStr"/>
@@ -25720,7 +26874,7 @@
         <v>156.0812926499999</v>
       </c>
       <c r="H735" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I735" t="inlineStr"/>
       <c r="J735" t="inlineStr"/>
@@ -25753,7 +26907,7 @@
         <v>156.2645926499999</v>
       </c>
       <c r="H736" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I736" t="inlineStr"/>
       <c r="J736" t="inlineStr"/>
@@ -25786,7 +26940,7 @@
         <v>156.3413926499999</v>
       </c>
       <c r="H737" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I737" t="inlineStr"/>
       <c r="J737" t="inlineStr"/>
@@ -30043,17 +31197,11 @@
         <v>64.12238203999986</v>
       </c>
       <c r="H866" t="n">
-        <v>2</v>
-      </c>
-      <c r="I866" t="n">
-        <v>9997000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I866" t="inlineStr"/>
       <c r="J866" t="inlineStr"/>
-      <c r="K866" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K866" t="inlineStr"/>
       <c r="L866" t="n">
         <v>1</v>
       </c>
@@ -30082,17 +31230,11 @@
         <v>65.57498203999987</v>
       </c>
       <c r="H867" t="n">
-        <v>2</v>
-      </c>
-      <c r="I867" t="n">
-        <v>9986000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I867" t="inlineStr"/>
       <c r="J867" t="inlineStr"/>
-      <c r="K867" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K867" t="inlineStr"/>
       <c r="L867" t="n">
         <v>1</v>
       </c>
@@ -30121,17 +31263,11 @@
         <v>66.03098203999987</v>
       </c>
       <c r="H868" t="n">
-        <v>2</v>
-      </c>
-      <c r="I868" t="n">
-        <v>9996000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I868" t="inlineStr"/>
       <c r="J868" t="inlineStr"/>
-      <c r="K868" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K868" t="inlineStr"/>
       <c r="L868" t="n">
         <v>1</v>
       </c>
@@ -30160,17 +31296,11 @@
         <v>70.28198203999987</v>
       </c>
       <c r="H869" t="n">
-        <v>2</v>
-      </c>
-      <c r="I869" t="n">
-        <v>9998000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I869" t="inlineStr"/>
       <c r="J869" t="inlineStr"/>
-      <c r="K869" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K869" t="inlineStr"/>
       <c r="L869" t="n">
         <v>1</v>
       </c>
@@ -30199,17 +31329,11 @@
         <v>69.15169244999987</v>
       </c>
       <c r="H870" t="n">
-        <v>2</v>
-      </c>
-      <c r="I870" t="n">
-        <v>10001000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I870" t="inlineStr"/>
       <c r="J870" t="inlineStr"/>
-      <c r="K870" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K870" t="inlineStr"/>
       <c r="L870" t="n">
         <v>1</v>
       </c>
@@ -30238,7 +31362,7 @@
         <v>71.55409244999987</v>
       </c>
       <c r="H871" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I871" t="n">
         <v>10000000</v>
@@ -30246,7 +31370,7 @@
       <c r="J871" t="inlineStr"/>
       <c r="K871" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L871" t="n">
@@ -30277,7 +31401,7 @@
         <v>74.60460254999987</v>
       </c>
       <c r="H872" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I872" t="n">
         <v>10006000</v>
@@ -30316,7 +31440,7 @@
         <v>74.60460254999987</v>
       </c>
       <c r="H873" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I873" t="n">
         <v>10009000</v>
@@ -30355,7 +31479,7 @@
         <v>78.97210254999987</v>
       </c>
       <c r="H874" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I874" t="n">
         <v>10009000</v>
@@ -30394,7 +31518,7 @@
         <v>76.31530254999987</v>
       </c>
       <c r="H875" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I875" t="n">
         <v>10013000</v>
@@ -30433,9 +31557,11 @@
         <v>81.43500254999987</v>
       </c>
       <c r="H876" t="n">
-        <v>0</v>
-      </c>
-      <c r="I876" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I876" t="n">
+        <v>10010000</v>
+      </c>
       <c r="J876" t="inlineStr"/>
       <c r="K876" t="inlineStr">
         <is>
@@ -30470,9 +31596,11 @@
         <v>82.45310254999987</v>
       </c>
       <c r="H877" t="n">
-        <v>0</v>
-      </c>
-      <c r="I877" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I877" t="n">
+        <v>10024000</v>
+      </c>
       <c r="J877" t="inlineStr"/>
       <c r="K877" t="inlineStr">
         <is>
@@ -30507,9 +31635,11 @@
         <v>85.93980254999987</v>
       </c>
       <c r="H878" t="n">
-        <v>0</v>
-      </c>
-      <c r="I878" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I878" t="n">
+        <v>10029000</v>
+      </c>
       <c r="J878" t="inlineStr"/>
       <c r="K878" t="inlineStr">
         <is>
@@ -30655,9 +31785,11 @@
         <v>77.62650515999988</v>
       </c>
       <c r="H882" t="n">
-        <v>0</v>
-      </c>
-      <c r="I882" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I882" t="n">
+        <v>10030000</v>
+      </c>
       <c r="J882" t="inlineStr"/>
       <c r="K882" t="inlineStr">
         <is>
@@ -31025,9 +32157,11 @@
         <v>85.13885630999989</v>
       </c>
       <c r="H892" t="n">
-        <v>0</v>
-      </c>
-      <c r="I892" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I892" t="n">
+        <v>10030000</v>
+      </c>
       <c r="J892" t="inlineStr"/>
       <c r="K892" t="inlineStr">
         <is>
@@ -31099,9 +32233,11 @@
         <v>84.3293640599999</v>
       </c>
       <c r="H894" t="n">
-        <v>0</v>
-      </c>
-      <c r="I894" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I894" t="n">
+        <v>10032000</v>
+      </c>
       <c r="J894" t="inlineStr"/>
       <c r="K894" t="inlineStr">
         <is>
@@ -31136,9 +32272,11 @@
         <v>85.61336412999991</v>
       </c>
       <c r="H895" t="n">
-        <v>0</v>
-      </c>
-      <c r="I895" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I895" t="n">
+        <v>10043000</v>
+      </c>
       <c r="J895" t="inlineStr"/>
       <c r="K895" t="inlineStr">
         <is>
@@ -31395,9 +32533,11 @@
         <v>71.69076855999991</v>
       </c>
       <c r="H902" t="n">
-        <v>0</v>
-      </c>
-      <c r="I902" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I902" t="n">
+        <v>10024000</v>
+      </c>
       <c r="J902" t="inlineStr"/>
       <c r="K902" t="inlineStr">
         <is>
@@ -31432,9 +32572,11 @@
         <v>71.14696855999991</v>
       </c>
       <c r="H903" t="n">
-        <v>0</v>
-      </c>
-      <c r="I903" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I903" t="n">
+        <v>10024000</v>
+      </c>
       <c r="J903" t="inlineStr"/>
       <c r="K903" t="inlineStr">
         <is>
@@ -31506,9 +32648,11 @@
         <v>68.92486855999991</v>
       </c>
       <c r="H905" t="n">
-        <v>0</v>
-      </c>
-      <c r="I905" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I905" t="n">
+        <v>10020000</v>
+      </c>
       <c r="J905" t="inlineStr"/>
       <c r="K905" t="inlineStr">
         <is>
@@ -31543,9 +32687,11 @@
         <v>66.8067431499999</v>
       </c>
       <c r="H906" t="n">
-        <v>0</v>
-      </c>
-      <c r="I906" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I906" t="n">
+        <v>10018000</v>
+      </c>
       <c r="J906" t="inlineStr"/>
       <c r="K906" t="inlineStr">
         <is>
@@ -31580,9 +32726,11 @@
         <v>66.5676431899999</v>
       </c>
       <c r="H907" t="n">
-        <v>0</v>
-      </c>
-      <c r="I907" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I907" t="n">
+        <v>10017000</v>
+      </c>
       <c r="J907" t="inlineStr"/>
       <c r="K907" t="inlineStr">
         <is>
@@ -31617,9 +32765,11 @@
         <v>67.7354418699999</v>
       </c>
       <c r="H908" t="n">
-        <v>0</v>
-      </c>
-      <c r="I908" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I908" t="n">
+        <v>10010000</v>
+      </c>
       <c r="J908" t="inlineStr"/>
       <c r="K908" t="inlineStr">
         <is>
@@ -31654,9 +32804,11 @@
         <v>67.7354418699999</v>
       </c>
       <c r="H909" t="n">
-        <v>0</v>
-      </c>
-      <c r="I909" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I909" t="n">
+        <v>10015000</v>
+      </c>
       <c r="J909" t="inlineStr"/>
       <c r="K909" t="inlineStr">
         <is>
@@ -31691,9 +32843,11 @@
         <v>68.6726965299999</v>
       </c>
       <c r="H910" t="n">
-        <v>0</v>
-      </c>
-      <c r="I910" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I910" t="n">
+        <v>10015000</v>
+      </c>
       <c r="J910" t="inlineStr"/>
       <c r="K910" t="inlineStr">
         <is>
@@ -31728,9 +32882,11 @@
         <v>67.59500267999989</v>
       </c>
       <c r="H911" t="n">
-        <v>0</v>
-      </c>
-      <c r="I911" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I911" t="n">
+        <v>10022000</v>
+      </c>
       <c r="J911" t="inlineStr"/>
       <c r="K911" t="inlineStr">
         <is>
@@ -31765,9 +32921,11 @@
         <v>67.59500267999989</v>
       </c>
       <c r="H912" t="n">
-        <v>0</v>
-      </c>
-      <c r="I912" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I912" t="n">
+        <v>10020000</v>
+      </c>
       <c r="J912" t="inlineStr"/>
       <c r="K912" t="inlineStr">
         <is>
@@ -31802,9 +32960,11 @@
         <v>67.59500267999989</v>
       </c>
       <c r="H913" t="n">
-        <v>0</v>
-      </c>
-      <c r="I913" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I913" t="n">
+        <v>10020000</v>
+      </c>
       <c r="J913" t="inlineStr"/>
       <c r="K913" t="inlineStr">
         <is>
@@ -31839,9 +32999,11 @@
         <v>66.9338026799999</v>
       </c>
       <c r="H914" t="n">
-        <v>0</v>
-      </c>
-      <c r="I914" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I914" t="n">
+        <v>10020000</v>
+      </c>
       <c r="J914" t="inlineStr"/>
       <c r="K914" t="inlineStr">
         <is>
@@ -45899,16 +47061,18 @@
         <v>177.9007959899999</v>
       </c>
       <c r="H1294" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1294" t="inlineStr"/>
       <c r="J1294" t="inlineStr"/>
       <c r="K1294" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L1294" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L1294" t="n">
+        <v>1</v>
+      </c>
       <c r="M1294" t="inlineStr"/>
     </row>
     <row r="1295">
@@ -45934,11 +47098,15 @@
         <v>177.9007959899999</v>
       </c>
       <c r="H1295" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1295" t="inlineStr"/>
       <c r="J1295" t="inlineStr"/>
-      <c r="K1295" t="inlineStr"/>
+      <c r="K1295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1295" t="n">
         <v>1</v>
       </c>
@@ -45967,11 +47135,15 @@
         <v>185.2834129799999</v>
       </c>
       <c r="H1296" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1296" t="inlineStr"/>
       <c r="J1296" t="inlineStr"/>
-      <c r="K1296" t="inlineStr"/>
+      <c r="K1296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1296" t="n">
         <v>1</v>
       </c>
@@ -46000,11 +47172,15 @@
         <v>180.1831129799999</v>
       </c>
       <c r="H1297" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1297" t="inlineStr"/>
       <c r="J1297" t="inlineStr"/>
-      <c r="K1297" t="inlineStr"/>
+      <c r="K1297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1297" t="n">
         <v>1</v>
       </c>
@@ -46033,11 +47209,15 @@
         <v>177.5213129699999</v>
       </c>
       <c r="H1298" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1298" t="inlineStr"/>
       <c r="J1298" t="inlineStr"/>
-      <c r="K1298" t="inlineStr"/>
+      <c r="K1298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1298" t="n">
         <v>1</v>
       </c>
@@ -46066,11 +47246,15 @@
         <v>177.5213129699999</v>
       </c>
       <c r="H1299" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1299" t="inlineStr"/>
       <c r="J1299" t="inlineStr"/>
-      <c r="K1299" t="inlineStr"/>
+      <c r="K1299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1299" t="n">
         <v>1</v>
       </c>
@@ -46099,11 +47283,15 @@
         <v>175.2538129699998</v>
       </c>
       <c r="H1300" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1300" t="inlineStr"/>
       <c r="J1300" t="inlineStr"/>
-      <c r="K1300" t="inlineStr"/>
+      <c r="K1300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1300" t="n">
         <v>1</v>
       </c>
@@ -46136,7 +47324,11 @@
       </c>
       <c r="I1301" t="inlineStr"/>
       <c r="J1301" t="inlineStr"/>
-      <c r="K1301" t="inlineStr"/>
+      <c r="K1301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1301" t="n">
         <v>1</v>
       </c>
@@ -46169,7 +47361,11 @@
       </c>
       <c r="I1302" t="inlineStr"/>
       <c r="J1302" t="inlineStr"/>
-      <c r="K1302" t="inlineStr"/>
+      <c r="K1302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1302" t="n">
         <v>1</v>
       </c>
@@ -46202,7 +47398,11 @@
       </c>
       <c r="I1303" t="inlineStr"/>
       <c r="J1303" t="inlineStr"/>
-      <c r="K1303" t="inlineStr"/>
+      <c r="K1303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1303" t="n">
         <v>1</v>
       </c>
@@ -46235,7 +47435,11 @@
       </c>
       <c r="I1304" t="inlineStr"/>
       <c r="J1304" t="inlineStr"/>
-      <c r="K1304" t="inlineStr"/>
+      <c r="K1304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1304" t="n">
         <v>1</v>
       </c>
@@ -46268,7 +47472,11 @@
       </c>
       <c r="I1305" t="inlineStr"/>
       <c r="J1305" t="inlineStr"/>
-      <c r="K1305" t="inlineStr"/>
+      <c r="K1305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1305" t="n">
         <v>1</v>
       </c>
@@ -46301,7 +47509,11 @@
       </c>
       <c r="I1306" t="inlineStr"/>
       <c r="J1306" t="inlineStr"/>
-      <c r="K1306" t="inlineStr"/>
+      <c r="K1306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1306" t="n">
         <v>1</v>
       </c>
@@ -46334,7 +47546,11 @@
       </c>
       <c r="I1307" t="inlineStr"/>
       <c r="J1307" t="inlineStr"/>
-      <c r="K1307" t="inlineStr"/>
+      <c r="K1307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1307" t="n">
         <v>1</v>
       </c>
@@ -46367,7 +47583,11 @@
       </c>
       <c r="I1308" t="inlineStr"/>
       <c r="J1308" t="inlineStr"/>
-      <c r="K1308" t="inlineStr"/>
+      <c r="K1308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1308" t="n">
         <v>1</v>
       </c>
@@ -46400,7 +47620,11 @@
       </c>
       <c r="I1309" t="inlineStr"/>
       <c r="J1309" t="inlineStr"/>
-      <c r="K1309" t="inlineStr"/>
+      <c r="K1309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1309" t="n">
         <v>1</v>
       </c>
@@ -46433,7 +47657,11 @@
       </c>
       <c r="I1310" t="inlineStr"/>
       <c r="J1310" t="inlineStr"/>
-      <c r="K1310" t="inlineStr"/>
+      <c r="K1310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1310" t="n">
         <v>1</v>
       </c>
@@ -46466,7 +47694,11 @@
       </c>
       <c r="I1311" t="inlineStr"/>
       <c r="J1311" t="inlineStr"/>
-      <c r="K1311" t="inlineStr"/>
+      <c r="K1311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1311" t="n">
         <v>1</v>
       </c>
@@ -46499,7 +47731,11 @@
       </c>
       <c r="I1312" t="inlineStr"/>
       <c r="J1312" t="inlineStr"/>
-      <c r="K1312" t="inlineStr"/>
+      <c r="K1312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1312" t="n">
         <v>1</v>
       </c>
@@ -46532,7 +47768,11 @@
       </c>
       <c r="I1313" t="inlineStr"/>
       <c r="J1313" t="inlineStr"/>
-      <c r="K1313" t="inlineStr"/>
+      <c r="K1313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1313" t="n">
         <v>1</v>
       </c>
@@ -46565,7 +47805,11 @@
       </c>
       <c r="I1314" t="inlineStr"/>
       <c r="J1314" t="inlineStr"/>
-      <c r="K1314" t="inlineStr"/>
+      <c r="K1314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1314" t="n">
         <v>1</v>
       </c>
@@ -46598,7 +47842,11 @@
       </c>
       <c r="I1315" t="inlineStr"/>
       <c r="J1315" t="inlineStr"/>
-      <c r="K1315" t="inlineStr"/>
+      <c r="K1315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1315" t="n">
         <v>1</v>
       </c>
@@ -46627,14 +47875,16 @@
         <v>164.1193709499999</v>
       </c>
       <c r="H1316" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1316" t="inlineStr"/>
       <c r="J1316" t="inlineStr"/>
-      <c r="K1316" t="inlineStr"/>
-      <c r="L1316" t="n">
-        <v>1</v>
-      </c>
+      <c r="K1316" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L1316" t="inlineStr"/>
       <c r="M1316" t="inlineStr"/>
     </row>
     <row r="1317">
@@ -46693,7 +47943,7 @@
         <v>163.2435765999999</v>
       </c>
       <c r="H1318" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1318" t="inlineStr"/>
       <c r="J1318" t="inlineStr"/>
@@ -46759,7 +48009,7 @@
         <v>158.7443765999999</v>
       </c>
       <c r="H1320" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1320" t="inlineStr"/>
       <c r="J1320" t="inlineStr"/>
@@ -46792,7 +48042,7 @@
         <v>158.6265765599999</v>
       </c>
       <c r="H1321" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1321" t="inlineStr"/>
       <c r="J1321" t="inlineStr"/>
@@ -46825,7 +48075,7 @@
         <v>159.9783765599999</v>
       </c>
       <c r="H1322" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1322" t="inlineStr"/>
       <c r="J1322" t="inlineStr"/>
@@ -47089,7 +48339,7 @@
         <v>157.7429321599999</v>
       </c>
       <c r="H1330" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1330" t="inlineStr"/>
       <c r="J1330" t="inlineStr"/>
@@ -47155,7 +48405,7 @@
         <v>159.6194315399999</v>
       </c>
       <c r="H1332" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1332" t="inlineStr"/>
       <c r="J1332" t="inlineStr"/>
@@ -47188,7 +48438,7 @@
         <v>158.9616648699999</v>
       </c>
       <c r="H1333" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1333" t="inlineStr"/>
       <c r="J1333" t="inlineStr"/>
@@ -47221,7 +48471,7 @@
         <v>159.2785295099999</v>
       </c>
       <c r="H1334" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1334" t="inlineStr"/>
       <c r="J1334" t="inlineStr"/>
@@ -47254,7 +48504,7 @@
         <v>160.3979283499999</v>
       </c>
       <c r="H1335" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1335" t="inlineStr"/>
       <c r="J1335" t="inlineStr"/>
@@ -47287,7 +48537,7 @@
         <v>163.1667283499999</v>
       </c>
       <c r="H1336" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1336" t="inlineStr"/>
       <c r="J1336" t="inlineStr"/>
@@ -47320,7 +48570,7 @@
         <v>161.3754283499999</v>
       </c>
       <c r="H1337" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1337" t="inlineStr"/>
       <c r="J1337" t="inlineStr"/>
@@ -47353,7 +48603,7 @@
         <v>163.9937283499999</v>
       </c>
       <c r="H1338" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1338" t="inlineStr"/>
       <c r="J1338" t="inlineStr"/>
@@ -47386,7 +48636,7 @@
         <v>165.2365283499999</v>
       </c>
       <c r="H1339" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1339" t="inlineStr"/>
       <c r="J1339" t="inlineStr"/>
@@ -47419,7 +48669,7 @@
         <v>163.9451158499999</v>
       </c>
       <c r="H1340" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1340" t="inlineStr"/>
       <c r="J1340" t="inlineStr"/>
@@ -47452,7 +48702,7 @@
         <v>171.2862447399999</v>
       </c>
       <c r="H1341" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1341" t="inlineStr"/>
       <c r="J1341" t="inlineStr"/>
@@ -47485,7 +48735,7 @@
         <v>178.5161447399999</v>
       </c>
       <c r="H1342" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1342" t="inlineStr"/>
       <c r="J1342" t="inlineStr"/>
@@ -47518,7 +48768,7 @@
         <v>185.1893036799999</v>
       </c>
       <c r="H1343" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1343" t="inlineStr"/>
       <c r="J1343" t="inlineStr"/>
@@ -47551,7 +48801,7 @@
         <v>200.1264447399999</v>
       </c>
       <c r="H1344" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1344" t="inlineStr"/>
       <c r="J1344" t="inlineStr"/>
@@ -47584,7 +48834,7 @@
         <v>205.3940447399999</v>
       </c>
       <c r="H1345" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1345" t="inlineStr"/>
       <c r="J1345" t="inlineStr"/>
@@ -47617,7 +48867,7 @@
         <v>214.6849447399998</v>
       </c>
       <c r="H1346" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1346" t="inlineStr"/>
       <c r="J1346" t="inlineStr"/>
@@ -47650,7 +48900,7 @@
         <v>220.6328369699999</v>
       </c>
       <c r="H1347" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1347" t="inlineStr"/>
       <c r="J1347" t="inlineStr"/>
@@ -47683,7 +48933,7 @@
         <v>224.4259641899999</v>
       </c>
       <c r="H1348" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1348" t="inlineStr"/>
       <c r="J1348" t="inlineStr"/>
@@ -47716,7 +48966,7 @@
         <v>225.4327641899999</v>
       </c>
       <c r="H1349" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1349" t="inlineStr"/>
       <c r="J1349" t="inlineStr"/>
@@ -47749,7 +48999,7 @@
         <v>229.3667306299999</v>
       </c>
       <c r="H1350" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1350" t="inlineStr"/>
       <c r="J1350" t="inlineStr"/>
@@ -47782,7 +49032,7 @@
         <v>231.8286642199999</v>
       </c>
       <c r="H1351" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1351" t="inlineStr"/>
       <c r="J1351" t="inlineStr"/>
@@ -47815,7 +49065,7 @@
         <v>228.7577642199999</v>
       </c>
       <c r="H1352" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1352" t="inlineStr"/>
       <c r="J1352" t="inlineStr"/>
@@ -47848,7 +49098,7 @@
         <v>225.8033642199999</v>
       </c>
       <c r="H1353" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1353" t="inlineStr"/>
       <c r="J1353" t="inlineStr"/>
@@ -47881,7 +49131,7 @@
         <v>228.5563642199999</v>
       </c>
       <c r="H1354" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1354" t="inlineStr"/>
       <c r="J1354" t="inlineStr"/>
@@ -47892,6 +49142,6 @@
       <c r="M1354" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-19 BackTest BTC.xlsx
+++ b/BackTest/2020-01-19 BackTest BTC.xlsx
@@ -451,7 +451,7 @@
         <v>44.13820995999999</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,11 +484,17 @@
         <v>42.69270995999999</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>9979000</v>
+      </c>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L3" t="n">
         <v>1</v>
       </c>
@@ -517,11 +523,17 @@
         <v>43.86120995999999</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>9967000</v>
+      </c>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -550,11 +562,17 @@
         <v>44.27610995999999</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>9975000</v>
+      </c>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -583,11 +601,17 @@
         <v>43.13768766999999</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>9980000</v>
+      </c>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -616,11 +640,17 @@
         <v>44.83208766999999</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>9975000</v>
+      </c>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -649,11 +679,15 @@
         <v>39.74610875999999</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -682,11 +716,15 @@
         <v>53.86562984999999</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -715,11 +753,15 @@
         <v>46.20021960999999</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -748,11 +790,15 @@
         <v>42.75871960999999</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -781,11 +827,17 @@
         <v>55.60521960999999</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>9983000</v>
+      </c>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -814,11 +866,15 @@
         <v>55.60521960999999</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -847,11 +903,15 @@
         <v>52.58361960999999</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -880,11 +940,15 @@
         <v>53.55101960999999</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -913,11 +977,15 @@
         <v>49.42491960999999</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -946,11 +1014,15 @@
         <v>52.04221960999999</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -979,11 +1051,15 @@
         <v>55.10941960999999</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1012,11 +1088,15 @@
         <v>55.10941960999999</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1045,11 +1125,15 @@
         <v>53.42431960999999</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1078,11 +1162,15 @@
         <v>52.05181960999999</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1111,11 +1199,15 @@
         <v>62.60012050999999</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1144,11 +1236,15 @@
         <v>57.73662050999999</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1177,11 +1273,15 @@
         <v>59.91922050999999</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1210,11 +1310,15 @@
         <v>66.34272050999999</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1243,11 +1347,15 @@
         <v>66.34272050999999</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1276,11 +1384,15 @@
         <v>72.63522051</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1309,11 +1421,15 @@
         <v>71.25252051</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1342,11 +1458,15 @@
         <v>77.01612050999999</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1375,11 +1495,15 @@
         <v>83.14591909999999</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1408,11 +1532,15 @@
         <v>80.56751909999998</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1441,11 +1569,15 @@
         <v>80.56751909999998</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1474,11 +1606,15 @@
         <v>82.86881909999998</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1507,11 +1643,15 @@
         <v>82.27989234999998</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1540,11 +1680,15 @@
         <v>84.44127005999998</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1573,11 +1717,15 @@
         <v>83.91888230999999</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1606,11 +1754,15 @@
         <v>82.47228230999998</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1639,11 +1791,15 @@
         <v>86.59998089999998</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1672,11 +1828,15 @@
         <v>85.58658089999997</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1705,11 +1865,15 @@
         <v>85.58658089999997</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1738,11 +1902,15 @@
         <v>89.13098089999997</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1771,11 +1939,15 @@
         <v>99.07728228999997</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1804,11 +1976,15 @@
         <v>94.86831659999997</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1837,11 +2013,15 @@
         <v>89.88381370999997</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1870,11 +2050,15 @@
         <v>92.22073134999997</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1903,11 +2087,15 @@
         <v>90.33357573999997</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1936,11 +2124,15 @@
         <v>97.93327381999997</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -1969,11 +2161,15 @@
         <v>97.43197381999997</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2002,11 +2198,15 @@
         <v>98.53077381999996</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2035,11 +2235,15 @@
         <v>101.79537382</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2068,11 +2272,15 @@
         <v>101.79537382</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2101,11 +2309,15 @@
         <v>102.24532387</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2134,11 +2346,15 @@
         <v>100.27092387</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2167,11 +2383,15 @@
         <v>101.09982387</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2200,11 +2420,15 @@
         <v>99.76352386999997</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2233,11 +2457,15 @@
         <v>99.61682386999998</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2266,11 +2494,15 @@
         <v>100.81962387</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2299,11 +2531,15 @@
         <v>99.51722386999997</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2332,11 +2568,15 @@
         <v>99.51722386999997</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2365,11 +2605,15 @@
         <v>93.52215911999997</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2398,11 +2642,15 @@
         <v>90.74857222999997</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2431,11 +2679,15 @@
         <v>85.79277222999997</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2464,11 +2716,15 @@
         <v>84.09917222999997</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2501,7 +2757,11 @@
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2534,7 +2794,11 @@
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2567,7 +2831,11 @@
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2600,7 +2868,11 @@
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2633,7 +2905,11 @@
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2666,7 +2942,11 @@
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2699,7 +2979,11 @@
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2732,7 +3016,11 @@
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2765,7 +3053,11 @@
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2798,7 +3090,11 @@
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2831,7 +3127,11 @@
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2864,7 +3164,11 @@
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2897,7 +3201,11 @@
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -2930,7 +3238,11 @@
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -2963,7 +3275,11 @@
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -2996,7 +3312,11 @@
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3029,7 +3349,11 @@
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3062,7 +3386,11 @@
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3095,7 +3423,11 @@
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3124,11 +3456,15 @@
         <v>94.66571309999996</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3157,11 +3493,15 @@
         <v>96.54541309999996</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3190,11 +3530,15 @@
         <v>95.81931309999996</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3227,7 +3571,11 @@
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3260,7 +3608,11 @@
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3293,7 +3645,11 @@
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3326,7 +3682,11 @@
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3359,7 +3719,11 @@
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3392,7 +3756,11 @@
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3425,7 +3793,11 @@
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3458,7 +3830,11 @@
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3491,7 +3867,11 @@
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3524,7 +3904,11 @@
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3557,7 +3941,11 @@
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3590,7 +3978,11 @@
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3623,7 +4015,11 @@
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3656,7 +4052,11 @@
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3689,7 +4089,11 @@
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3722,7 +4126,11 @@
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3755,7 +4163,11 @@
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3788,7 +4200,11 @@
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3821,7 +4237,11 @@
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3854,7 +4274,11 @@
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -3887,7 +4311,11 @@
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -3920,7 +4348,11 @@
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -3953,7 +4385,11 @@
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -3982,11 +4418,15 @@
         <v>111.5831378399999</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4015,11 +4455,15 @@
         <v>108.2677394899999</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4048,11 +4492,15 @@
         <v>111.2667394899999</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4081,11 +4529,15 @@
         <v>114.0788394899999</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4114,11 +4566,15 @@
         <v>112.9348394899999</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4147,11 +4603,15 @@
         <v>111.6740394899999</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4180,11 +4640,15 @@
         <v>110.9485394899999</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4213,11 +4677,15 @@
         <v>111.0474394899999</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4246,11 +4714,15 @@
         <v>111.0474394899999</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4279,11 +4751,15 @@
         <v>111.0290394899999</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4312,11 +4788,15 @@
         <v>106.6799394899999</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4345,11 +4825,15 @@
         <v>107.2595382899999</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4378,11 +4862,15 @@
         <v>105.4479382899999</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4411,11 +4899,15 @@
         <v>105.1711382899999</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4444,11 +4936,15 @@
         <v>106.2071382899999</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4477,11 +4973,15 @@
         <v>102.4224382899999</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4510,11 +5010,15 @@
         <v>100.0848382899999</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4543,11 +5047,15 @@
         <v>101.1513382899999</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4580,7 +5088,11 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4613,7 +5125,11 @@
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4646,7 +5162,11 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4679,7 +5199,11 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4712,7 +5236,11 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4745,7 +5273,11 @@
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4778,7 +5310,11 @@
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -4811,7 +5347,11 @@
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -4844,7 +5384,11 @@
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -4877,7 +5421,11 @@
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -4910,7 +5458,11 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -4943,7 +5495,11 @@
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -4976,7 +5532,11 @@
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5009,7 +5569,11 @@
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5042,7 +5606,11 @@
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5075,7 +5643,11 @@
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5108,7 +5680,11 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5141,7 +5717,11 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5174,7 +5754,11 @@
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5207,7 +5791,11 @@
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5240,7 +5828,11 @@
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5273,7 +5865,11 @@
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5306,7 +5902,11 @@
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5339,7 +5939,11 @@
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5372,7 +5976,11 @@
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5405,7 +6013,11 @@
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5438,7 +6050,11 @@
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5471,7 +6087,11 @@
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5504,7 +6124,11 @@
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5537,7 +6161,11 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5570,7 +6198,11 @@
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5603,7 +6235,11 @@
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5636,7 +6272,11 @@
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5669,7 +6309,11 @@
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5702,7 +6346,11 @@
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -5735,7 +6383,11 @@
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -5768,7 +6420,11 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -5801,7 +6457,11 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -5834,7 +6494,11 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -5867,7 +6531,11 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -5900,7 +6568,11 @@
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -5933,7 +6605,11 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -5966,7 +6642,11 @@
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -5999,7 +6679,11 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6032,7 +6716,11 @@
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6065,7 +6753,11 @@
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6094,11 +6786,15 @@
         <v>109.27919686</v>
       </c>
       <c r="H173" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6127,11 +6823,15 @@
         <v>104.31279686</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6160,11 +6860,15 @@
         <v>105.30779686</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6193,11 +6897,15 @@
         <v>105.75289686</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6226,11 +6934,15 @@
         <v>105.27019686</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6259,11 +6971,15 @@
         <v>104.13519686</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6292,11 +7008,15 @@
         <v>104.13519686</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6325,11 +7045,15 @@
         <v>104.13519686</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6358,11 +7082,15 @@
         <v>104.13519686</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6391,11 +7119,15 @@
         <v>102.49129686</v>
       </c>
       <c r="H182" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6428,7 +7160,11 @@
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6461,7 +7197,11 @@
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6494,7 +7234,11 @@
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6527,7 +7271,11 @@
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6560,7 +7308,11 @@
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6593,7 +7345,11 @@
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6626,7 +7382,11 @@
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -6659,7 +7419,11 @@
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -6692,7 +7456,11 @@
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -6725,7 +7493,11 @@
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -6758,7 +7530,11 @@
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -6791,7 +7567,11 @@
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -6824,7 +7604,11 @@
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -6857,7 +7641,11 @@
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -6890,7 +7678,11 @@
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -6923,7 +7715,11 @@
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -6956,7 +7752,11 @@
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -6989,7 +7789,11 @@
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7022,7 +7826,11 @@
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7055,7 +7863,11 @@
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7088,7 +7900,11 @@
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7117,11 +7933,15 @@
         <v>111.18451921</v>
       </c>
       <c r="H204" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7150,11 +7970,15 @@
         <v>110.79141921</v>
       </c>
       <c r="H205" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7187,7 +8011,11 @@
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7220,7 +8048,11 @@
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7249,11 +8081,15 @@
         <v>101.86961921</v>
       </c>
       <c r="H208" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7282,11 +8118,15 @@
         <v>103.00771921</v>
       </c>
       <c r="H209" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7319,7 +8159,11 @@
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7352,7 +8196,11 @@
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7381,11 +8229,15 @@
         <v>104.55341921</v>
       </c>
       <c r="H212" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7414,11 +8266,15 @@
         <v>102.49271921</v>
       </c>
       <c r="H213" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7447,11 +8303,15 @@
         <v>102.49271921</v>
       </c>
       <c r="H214" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7480,11 +8340,15 @@
         <v>103.97551921</v>
       </c>
       <c r="H215" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7513,11 +8377,15 @@
         <v>103.46131921</v>
       </c>
       <c r="H216" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -7546,11 +8414,15 @@
         <v>103.46131921</v>
       </c>
       <c r="H217" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -7579,11 +8451,15 @@
         <v>104.00331921</v>
       </c>
       <c r="H218" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -7612,11 +8488,15 @@
         <v>103.83871921</v>
       </c>
       <c r="H219" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -7645,11 +8525,15 @@
         <v>105.00561921</v>
       </c>
       <c r="H220" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -7678,11 +8562,15 @@
         <v>105.31251921</v>
       </c>
       <c r="H221" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -7711,11 +8599,15 @@
         <v>104.89271921</v>
       </c>
       <c r="H222" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -7748,7 +8640,11 @@
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -7777,11 +8673,15 @@
         <v>100.97871921</v>
       </c>
       <c r="H224" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -7810,11 +8710,15 @@
         <v>99.09241920999997</v>
       </c>
       <c r="H225" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -7847,7 +8751,11 @@
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -7880,7 +8788,11 @@
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -7913,7 +8825,11 @@
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -7946,7 +8862,11 @@
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -7979,7 +8899,11 @@
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8012,7 +8936,11 @@
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8045,7 +8973,11 @@
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8078,7 +9010,11 @@
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8111,7 +9047,11 @@
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8144,7 +9084,11 @@
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8177,7 +9121,11 @@
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8210,7 +9158,11 @@
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8243,7 +9195,11 @@
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8276,7 +9232,11 @@
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8309,7 +9269,11 @@
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8342,7 +9306,11 @@
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8371,11 +9339,15 @@
         <v>113.08381921</v>
       </c>
       <c r="H242" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8404,11 +9376,15 @@
         <v>116.77241921</v>
       </c>
       <c r="H243" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -8437,11 +9413,15 @@
         <v>117.30381925</v>
       </c>
       <c r="H244" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -8470,11 +9450,15 @@
         <v>118.28759751</v>
       </c>
       <c r="H245" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -8503,11 +9487,15 @@
         <v>117.17419751</v>
       </c>
       <c r="H246" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -8536,11 +9524,15 @@
         <v>116.55229751</v>
       </c>
       <c r="H247" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -8569,11 +9561,15 @@
         <v>114.58119753</v>
       </c>
       <c r="H248" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -8602,11 +9598,15 @@
         <v>114.97689753</v>
       </c>
       <c r="H249" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -8635,11 +9635,15 @@
         <v>117.98179753</v>
       </c>
       <c r="H250" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -8668,11 +9672,15 @@
         <v>120.52231927</v>
       </c>
       <c r="H251" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -8701,11 +9709,15 @@
         <v>121.96211927</v>
       </c>
       <c r="H252" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -8734,11 +9746,15 @@
         <v>117.93941927</v>
       </c>
       <c r="H253" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -8767,11 +9783,15 @@
         <v>125.19155679</v>
       </c>
       <c r="H254" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -8800,11 +9820,15 @@
         <v>126.95375679</v>
       </c>
       <c r="H255" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -8837,7 +9861,11 @@
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -8870,7 +9898,11 @@
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -8903,7 +9935,11 @@
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -8936,7 +9972,11 @@
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -8969,7 +10009,11 @@
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9002,7 +10046,11 @@
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9035,7 +10083,11 @@
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9068,7 +10120,11 @@
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9101,7 +10157,11 @@
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9134,7 +10194,11 @@
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9163,11 +10227,15 @@
         <v>111.52450012</v>
       </c>
       <c r="H266" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9196,11 +10264,15 @@
         <v>108.54470012</v>
       </c>
       <c r="H267" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9233,7 +10305,11 @@
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9266,7 +10342,11 @@
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9299,7 +10379,11 @@
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9332,7 +10416,11 @@
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9365,7 +10453,11 @@
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -9394,11 +10486,15 @@
         <v>103.32380761</v>
       </c>
       <c r="H273" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -9427,11 +10523,15 @@
         <v>104.88820761</v>
       </c>
       <c r="H274" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -9460,11 +10560,15 @@
         <v>103.44860761</v>
       </c>
       <c r="H275" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -9493,11 +10597,15 @@
         <v>103.23272857</v>
       </c>
       <c r="H276" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -9526,11 +10634,15 @@
         <v>103.26822857</v>
       </c>
       <c r="H277" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -9559,11 +10671,15 @@
         <v>103.5619253</v>
       </c>
       <c r="H278" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -9592,11 +10708,15 @@
         <v>111.72906063</v>
       </c>
       <c r="H279" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -9625,11 +10745,15 @@
         <v>112.53997301</v>
       </c>
       <c r="H280" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -9658,11 +10782,15 @@
         <v>112.78347301</v>
       </c>
       <c r="H281" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -9691,11 +10819,15 @@
         <v>112.78347301</v>
       </c>
       <c r="H282" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -9724,11 +10856,15 @@
         <v>113.22367301</v>
       </c>
       <c r="H283" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -9757,11 +10893,15 @@
         <v>113.95617301</v>
       </c>
       <c r="H284" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -9790,11 +10930,15 @@
         <v>112.40086522</v>
       </c>
       <c r="H285" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -9823,11 +10967,15 @@
         <v>110.00566522</v>
       </c>
       <c r="H286" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -9856,11 +11004,15 @@
         <v>115.7700249</v>
       </c>
       <c r="H287" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -9889,11 +11041,15 @@
         <v>115.7699249</v>
       </c>
       <c r="H288" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -9922,11 +11078,15 @@
         <v>116.10932464</v>
       </c>
       <c r="H289" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -9955,11 +11115,15 @@
         <v>115.82902464</v>
       </c>
       <c r="H290" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -9988,11 +11152,15 @@
         <v>117.28932464</v>
       </c>
       <c r="H291" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10025,7 +11193,11 @@
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10058,7 +11230,11 @@
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10091,7 +11267,11 @@
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10124,7 +11304,11 @@
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10157,7 +11341,11 @@
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10190,7 +11378,11 @@
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -10223,7 +11415,11 @@
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -10256,7 +11452,11 @@
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -10289,7 +11489,11 @@
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -10322,7 +11526,11 @@
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -10355,7 +11563,11 @@
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -10388,7 +11600,11 @@
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -10421,7 +11637,11 @@
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -10454,7 +11674,11 @@
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -10487,7 +11711,11 @@
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -10520,7 +11748,11 @@
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -10553,7 +11785,11 @@
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -10586,7 +11822,11 @@
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -10619,7 +11859,11 @@
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -10652,7 +11896,11 @@
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -10685,7 +11933,11 @@
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -10718,7 +11970,11 @@
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -10751,7 +12007,11 @@
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -10784,7 +12044,11 @@
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -10817,7 +12081,11 @@
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -10850,7 +12118,11 @@
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -10883,7 +12155,11 @@
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -10916,7 +12192,11 @@
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -10949,7 +12229,11 @@
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -10982,7 +12266,11 @@
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11015,7 +12303,11 @@
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11048,7 +12340,11 @@
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -11081,7 +12377,11 @@
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -11114,7 +12414,11 @@
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -11147,7 +12451,11 @@
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -11180,7 +12488,11 @@
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -11213,7 +12525,11 @@
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -11246,7 +12562,11 @@
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -11279,7 +12599,11 @@
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -11312,7 +12636,11 @@
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -11345,7 +12673,11 @@
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -11378,7 +12710,11 @@
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -11411,7 +12747,11 @@
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -11444,7 +12784,11 @@
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -11477,7 +12821,11 @@
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -11510,7 +12858,11 @@
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -11543,7 +12895,11 @@
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -11576,7 +12932,11 @@
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -11609,7 +12969,11 @@
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -11642,7 +13006,11 @@
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -11675,7 +13043,11 @@
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -11708,7 +13080,11 @@
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -11741,7 +13117,11 @@
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -11774,7 +13154,11 @@
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -11807,7 +13191,11 @@
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -11840,7 +13228,11 @@
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -11873,7 +13265,11 @@
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -11906,7 +13302,11 @@
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -11939,7 +13339,11 @@
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -11972,7 +13376,11 @@
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -12005,7 +13413,11 @@
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -12038,7 +13450,11 @@
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -12071,7 +13487,11 @@
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -12104,7 +13524,11 @@
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -12137,7 +13561,11 @@
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -12170,7 +13598,11 @@
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -12203,7 +13635,11 @@
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -12236,7 +13672,11 @@
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -12269,7 +13709,11 @@
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
+      <c r="K360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -12302,7 +13746,11 @@
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr"/>
+      <c r="K361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -12335,7 +13783,11 @@
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
+      <c r="K362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -12368,7 +13820,11 @@
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
+      <c r="K363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -12401,7 +13857,11 @@
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
+      <c r="K364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -12434,7 +13894,11 @@
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
+      <c r="K365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -12467,7 +13931,11 @@
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
+      <c r="K366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -12500,7 +13968,11 @@
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
+      <c r="K367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -12533,7 +14005,11 @@
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
+      <c r="K368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -12566,7 +14042,11 @@
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
+      <c r="K369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -12599,7 +14079,11 @@
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
+      <c r="K370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -12632,7 +14116,11 @@
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
+      <c r="K371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -12665,7 +14153,11 @@
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
+      <c r="K372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -12698,7 +14190,11 @@
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr"/>
+      <c r="K373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -12731,7 +14227,11 @@
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
+      <c r="K374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -12764,7 +14264,11 @@
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr"/>
+      <c r="K375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -12797,7 +14301,11 @@
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr"/>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -12830,7 +14338,11 @@
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr"/>
+      <c r="K377" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -12863,7 +14375,11 @@
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr"/>
+      <c r="K378" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -12896,7 +14412,11 @@
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr"/>
+      <c r="K379" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -12929,7 +14449,11 @@
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr"/>
+      <c r="K380" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -12962,7 +14486,11 @@
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr"/>
+      <c r="K381" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -12995,7 +14523,11 @@
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr"/>
+      <c r="K382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -13028,7 +14560,11 @@
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr"/>
+      <c r="K383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -13061,7 +14597,11 @@
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr"/>
+      <c r="K384" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -13094,7 +14634,11 @@
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr"/>
+      <c r="K385" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -13127,7 +14671,11 @@
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr"/>
+      <c r="K386" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -13160,7 +14708,11 @@
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr"/>
+      <c r="K387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -13193,7 +14745,11 @@
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr"/>
+      <c r="K388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -13226,7 +14782,11 @@
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr"/>
+      <c r="K389" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -13259,7 +14819,11 @@
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr"/>
+      <c r="K390" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -13292,7 +14856,11 @@
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr"/>
+      <c r="K391" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -13325,7 +14893,11 @@
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr"/>
+      <c r="K392" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -13358,7 +14930,11 @@
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr"/>
+      <c r="K393" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -13391,7 +14967,11 @@
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr"/>
+      <c r="K394" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -13424,7 +15004,11 @@
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr"/>
+      <c r="K395" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -13457,7 +15041,11 @@
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr"/>
+      <c r="K396" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -13490,7 +15078,11 @@
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr"/>
+      <c r="K397" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -13523,7 +15115,11 @@
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr"/>
+      <c r="K398" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -13556,7 +15152,11 @@
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr"/>
+      <c r="K399" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -13589,7 +15189,11 @@
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr"/>
+      <c r="K400" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -13622,7 +15226,11 @@
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr"/>
+      <c r="K401" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -13655,7 +15263,11 @@
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr"/>
+      <c r="K402" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -13688,7 +15300,11 @@
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr"/>
+      <c r="K403" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -13721,7 +15337,11 @@
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr"/>
+      <c r="K404" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -13754,7 +15374,11 @@
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr"/>
+      <c r="K405" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -13787,7 +15411,11 @@
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr"/>
+      <c r="K406" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -13820,7 +15448,11 @@
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr"/>
+      <c r="K407" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -13853,7 +15485,11 @@
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr"/>
+      <c r="K408" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -13886,7 +15522,11 @@
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr"/>
+      <c r="K409" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -13919,7 +15559,11 @@
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr"/>
+      <c r="K410" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -13952,7 +15596,11 @@
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr"/>
+      <c r="K411" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -13985,7 +15633,11 @@
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr"/>
+      <c r="K412" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -14018,7 +15670,11 @@
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr"/>
+      <c r="K413" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -14051,7 +15707,11 @@
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr"/>
+      <c r="K414" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -14084,7 +15744,11 @@
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr"/>
+      <c r="K415" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -14117,7 +15781,11 @@
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr"/>
+      <c r="K416" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -14150,7 +15818,11 @@
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr"/>
+      <c r="K417" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -14183,7 +15855,11 @@
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr"/>
+      <c r="K418" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -14216,7 +15892,11 @@
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr"/>
+      <c r="K419" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -14249,7 +15929,11 @@
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr"/>
+      <c r="K420" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -14282,7 +15966,11 @@
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr"/>
+      <c r="K421" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -14315,7 +16003,11 @@
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr"/>
+      <c r="K422" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -14348,7 +16040,11 @@
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr"/>
+      <c r="K423" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -14381,7 +16077,11 @@
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr"/>
+      <c r="K424" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -14414,7 +16114,11 @@
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr"/>
+      <c r="K425" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -14447,7 +16151,11 @@
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr"/>
+      <c r="K426" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -14480,7 +16188,11 @@
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr"/>
+      <c r="K427" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -14513,7 +16225,11 @@
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr"/>
+      <c r="K428" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -14546,7 +16262,11 @@
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr"/>
+      <c r="K429" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -14579,7 +16299,11 @@
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr"/>
+      <c r="K430" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -14612,7 +16336,11 @@
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr"/>
+      <c r="K431" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -14645,7 +16373,11 @@
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr"/>
+      <c r="K432" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -14678,7 +16410,11 @@
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr"/>
+      <c r="K433" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -14711,7 +16447,11 @@
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr"/>
+      <c r="K434" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -14744,7 +16484,11 @@
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr"/>
+      <c r="K435" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -14777,7 +16521,11 @@
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr"/>
+      <c r="K436" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -14810,7 +16558,11 @@
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr"/>
+      <c r="K437" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -14843,7 +16595,11 @@
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr"/>
+      <c r="K438" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -14876,7 +16632,11 @@
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr"/>
+      <c r="K439" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -14909,7 +16669,11 @@
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr"/>
+      <c r="K440" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -14942,7 +16706,11 @@
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr"/>
+      <c r="K441" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -14975,7 +16743,11 @@
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr"/>
+      <c r="K442" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -15008,7 +16780,11 @@
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr"/>
+      <c r="K443" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -15041,7 +16817,11 @@
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr"/>
+      <c r="K444" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -15074,7 +16854,11 @@
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr"/>
+      <c r="K445" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -15107,7 +16891,11 @@
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr"/>
+      <c r="K446" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -15140,7 +16928,11 @@
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr"/>
+      <c r="K447" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -15173,7 +16965,11 @@
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr"/>
+      <c r="K448" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -15206,7 +17002,11 @@
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr"/>
+      <c r="K449" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -15239,7 +17039,11 @@
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
-      <c r="K450" t="inlineStr"/>
+      <c r="K450" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -15272,7 +17076,11 @@
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
-      <c r="K451" t="inlineStr"/>
+      <c r="K451" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -15305,7 +17113,11 @@
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
-      <c r="K452" t="inlineStr"/>
+      <c r="K452" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -15338,7 +17150,11 @@
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
-      <c r="K453" t="inlineStr"/>
+      <c r="K453" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -15371,7 +17187,11 @@
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
-      <c r="K454" t="inlineStr"/>
+      <c r="K454" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -15404,7 +17224,11 @@
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
-      <c r="K455" t="inlineStr"/>
+      <c r="K455" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -15437,7 +17261,11 @@
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr"/>
+      <c r="K456" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -15470,7 +17298,11 @@
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr"/>
+      <c r="K457" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -15503,7 +17335,11 @@
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
-      <c r="K458" t="inlineStr"/>
+      <c r="K458" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -15536,7 +17372,11 @@
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr"/>
+      <c r="K459" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -15569,7 +17409,11 @@
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr"/>
+      <c r="K460" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -15602,7 +17446,11 @@
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr"/>
+      <c r="K461" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -15635,7 +17483,11 @@
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
-      <c r="K462" t="inlineStr"/>
+      <c r="K462" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -15668,7 +17520,11 @@
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
-      <c r="K463" t="inlineStr"/>
+      <c r="K463" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -15701,7 +17557,11 @@
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr"/>
+      <c r="K464" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -15734,7 +17594,11 @@
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
-      <c r="K465" t="inlineStr"/>
+      <c r="K465" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -15767,7 +17631,11 @@
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
-      <c r="K466" t="inlineStr"/>
+      <c r="K466" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -15800,7 +17668,11 @@
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
-      <c r="K467" t="inlineStr"/>
+      <c r="K467" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -15833,7 +17705,11 @@
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
-      <c r="K468" t="inlineStr"/>
+      <c r="K468" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -15866,7 +17742,11 @@
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
-      <c r="K469" t="inlineStr"/>
+      <c r="K469" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -15899,7 +17779,11 @@
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
-      <c r="K470" t="inlineStr"/>
+      <c r="K470" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -15932,7 +17816,11 @@
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
-      <c r="K471" t="inlineStr"/>
+      <c r="K471" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -15965,7 +17853,11 @@
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
-      <c r="K472" t="inlineStr"/>
+      <c r="K472" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -15998,7 +17890,11 @@
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
-      <c r="K473" t="inlineStr"/>
+      <c r="K473" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -16031,7 +17927,11 @@
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
-      <c r="K474" t="inlineStr"/>
+      <c r="K474" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -16064,7 +17964,11 @@
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
-      <c r="K475" t="inlineStr"/>
+      <c r="K475" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -16097,7 +18001,11 @@
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
-      <c r="K476" t="inlineStr"/>
+      <c r="K476" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -16130,7 +18038,11 @@
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
-      <c r="K477" t="inlineStr"/>
+      <c r="K477" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -16163,7 +18075,11 @@
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
-      <c r="K478" t="inlineStr"/>
+      <c r="K478" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -16196,7 +18112,11 @@
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
-      <c r="K479" t="inlineStr"/>
+      <c r="K479" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -16229,7 +18149,11 @@
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
-      <c r="K480" t="inlineStr"/>
+      <c r="K480" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -16262,7 +18186,11 @@
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
-      <c r="K481" t="inlineStr"/>
+      <c r="K481" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -16295,7 +18223,11 @@
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
-      <c r="K482" t="inlineStr"/>
+      <c r="K482" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -16328,7 +18260,11 @@
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
-      <c r="K483" t="inlineStr"/>
+      <c r="K483" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -16361,7 +18297,11 @@
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
-      <c r="K484" t="inlineStr"/>
+      <c r="K484" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -16394,7 +18334,11 @@
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
-      <c r="K485" t="inlineStr"/>
+      <c r="K485" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -16423,15 +18367,13 @@
         <v>90.58954486999993</v>
       </c>
       <c r="H486" t="n">
-        <v>1</v>
-      </c>
-      <c r="I486" t="n">
-        <v>10000000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
       <c r="K486" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L486" t="n">
@@ -16462,11 +18404,9 @@
         <v>76.30464486999992</v>
       </c>
       <c r="H487" t="n">
-        <v>1</v>
-      </c>
-      <c r="I487" t="n">
-        <v>9993000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
       <c r="K487" t="inlineStr">
         <is>
@@ -16538,11 +18478,9 @@
         <v>79.33204486999992</v>
       </c>
       <c r="H489" t="n">
-        <v>1</v>
-      </c>
-      <c r="I489" t="n">
-        <v>9976000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
       <c r="K489" t="inlineStr">
         <is>
@@ -16577,11 +18515,9 @@
         <v>74.48924486999992</v>
       </c>
       <c r="H490" t="n">
-        <v>1</v>
-      </c>
-      <c r="I490" t="n">
-        <v>9977000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
       <c r="K490" t="inlineStr">
         <is>
@@ -16616,11 +18552,9 @@
         <v>74.48924486999992</v>
       </c>
       <c r="H491" t="n">
-        <v>1</v>
-      </c>
-      <c r="I491" t="n">
-        <v>9966000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
       <c r="K491" t="inlineStr">
         <is>
@@ -16655,11 +18589,9 @@
         <v>81.33824484999992</v>
       </c>
       <c r="H492" t="n">
-        <v>1</v>
-      </c>
-      <c r="I492" t="n">
-        <v>9966000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
       <c r="K492" t="inlineStr">
         <is>
@@ -16694,11 +18626,9 @@
         <v>87.69934484999993</v>
       </c>
       <c r="H493" t="n">
-        <v>1</v>
-      </c>
-      <c r="I493" t="n">
-        <v>9978000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
       <c r="K493" t="inlineStr">
         <is>
@@ -16733,11 +18663,9 @@
         <v>88.14864484999993</v>
       </c>
       <c r="H494" t="n">
-        <v>1</v>
-      </c>
-      <c r="I494" t="n">
-        <v>9988000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
       <c r="K494" t="inlineStr">
         <is>
@@ -17179,16 +19107,18 @@
         <v>109.8543391399999</v>
       </c>
       <c r="H506" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
       <c r="K506" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L506" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L506" t="n">
+        <v>1</v>
+      </c>
       <c r="M506" t="inlineStr"/>
     </row>
     <row r="507">
@@ -17214,11 +19144,15 @@
         <v>107.6623391399999</v>
       </c>
       <c r="H507" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
-      <c r="K507" t="inlineStr"/>
+      <c r="K507" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L507" t="n">
         <v>1</v>
       </c>
@@ -17247,11 +19181,15 @@
         <v>111.0496967099999</v>
       </c>
       <c r="H508" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
-      <c r="K508" t="inlineStr"/>
+      <c r="K508" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L508" t="n">
         <v>1</v>
       </c>
@@ -17280,11 +19218,15 @@
         <v>111.0496967099999</v>
       </c>
       <c r="H509" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
-      <c r="K509" t="inlineStr"/>
+      <c r="K509" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L509" t="n">
         <v>1</v>
       </c>
@@ -17313,11 +19255,15 @@
         <v>107.6382009399999</v>
       </c>
       <c r="H510" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
-      <c r="K510" t="inlineStr"/>
+      <c r="K510" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L510" t="n">
         <v>1</v>
       </c>
@@ -17346,11 +19292,15 @@
         <v>108.0824009399999</v>
       </c>
       <c r="H511" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
-      <c r="K511" t="inlineStr"/>
+      <c r="K511" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L511" t="n">
         <v>1</v>
       </c>
@@ -17379,11 +19329,15 @@
         <v>109.5500953599999</v>
       </c>
       <c r="H512" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
-      <c r="K512" t="inlineStr"/>
+      <c r="K512" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L512" t="n">
         <v>1</v>
       </c>
@@ -17412,11 +19366,15 @@
         <v>116.2114953599999</v>
       </c>
       <c r="H513" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
-      <c r="K513" t="inlineStr"/>
+      <c r="K513" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L513" t="n">
         <v>1</v>
       </c>
@@ -17445,11 +19403,15 @@
         <v>116.2114953599999</v>
       </c>
       <c r="H514" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
-      <c r="K514" t="inlineStr"/>
+      <c r="K514" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L514" t="n">
         <v>1</v>
       </c>
@@ -17478,11 +19440,15 @@
         <v>118.5937240099999</v>
       </c>
       <c r="H515" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
-      <c r="K515" t="inlineStr"/>
+      <c r="K515" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L515" t="n">
         <v>1</v>
       </c>
@@ -17511,11 +19477,15 @@
         <v>116.7418240099999</v>
       </c>
       <c r="H516" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
-      <c r="K516" t="inlineStr"/>
+      <c r="K516" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L516" t="n">
         <v>1</v>
       </c>
@@ -17548,7 +19518,11 @@
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
-      <c r="K517" t="inlineStr"/>
+      <c r="K517" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L517" t="n">
         <v>1</v>
       </c>
@@ -17577,11 +19551,15 @@
         <v>118.2375240099999</v>
       </c>
       <c r="H518" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
-      <c r="K518" t="inlineStr"/>
+      <c r="K518" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L518" t="n">
         <v>1</v>
       </c>
@@ -17610,11 +19588,15 @@
         <v>119.9645240099999</v>
       </c>
       <c r="H519" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
-      <c r="K519" t="inlineStr"/>
+      <c r="K519" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L519" t="n">
         <v>1</v>
       </c>
@@ -17643,11 +19625,15 @@
         <v>124.7748263699999</v>
       </c>
       <c r="H520" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
-      <c r="K520" t="inlineStr"/>
+      <c r="K520" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L520" t="n">
         <v>1</v>
       </c>
@@ -17676,11 +19662,15 @@
         <v>132.8380263699999</v>
       </c>
       <c r="H521" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
-      <c r="K521" t="inlineStr"/>
+      <c r="K521" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L521" t="n">
         <v>1</v>
       </c>
@@ -17709,11 +19699,15 @@
         <v>146.3226263699999</v>
       </c>
       <c r="H522" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
-      <c r="K522" t="inlineStr"/>
+      <c r="K522" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L522" t="n">
         <v>1</v>
       </c>
@@ -17742,11 +19736,15 @@
         <v>152.0625263699999</v>
       </c>
       <c r="H523" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
-      <c r="K523" t="inlineStr"/>
+      <c r="K523" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L523" t="n">
         <v>1</v>
       </c>
@@ -17775,11 +19773,15 @@
         <v>166.8225263699999</v>
       </c>
       <c r="H524" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
-      <c r="K524" t="inlineStr"/>
+      <c r="K524" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L524" t="n">
         <v>1</v>
       </c>
@@ -17812,7 +19814,11 @@
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
-      <c r="K525" t="inlineStr"/>
+      <c r="K525" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L525" t="n">
         <v>1</v>
       </c>
@@ -17845,7 +19851,11 @@
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
-      <c r="K526" t="inlineStr"/>
+      <c r="K526" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L526" t="n">
         <v>1</v>
       </c>
@@ -17878,7 +19888,11 @@
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
-      <c r="K527" t="inlineStr"/>
+      <c r="K527" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L527" t="n">
         <v>1</v>
       </c>
@@ -17911,7 +19925,11 @@
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
-      <c r="K528" t="inlineStr"/>
+      <c r="K528" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L528" t="n">
         <v>1</v>
       </c>
@@ -17940,14 +19958,16 @@
         <v>184.0187901699999</v>
       </c>
       <c r="H529" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
-      <c r="K529" t="inlineStr"/>
-      <c r="L529" t="n">
-        <v>1</v>
-      </c>
+      <c r="K529" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L529" t="inlineStr"/>
       <c r="M529" t="inlineStr"/>
     </row>
     <row r="530">
@@ -17973,7 +19993,7 @@
         <v>183.2029901699999</v>
       </c>
       <c r="H530" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
@@ -18039,7 +20059,7 @@
         <v>178.1808874099999</v>
       </c>
       <c r="H532" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
@@ -18105,7 +20125,7 @@
         <v>184.0544873999999</v>
       </c>
       <c r="H534" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
@@ -18138,7 +20158,7 @@
         <v>186.3219874</v>
       </c>
       <c r="H535" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
@@ -18171,7 +20191,7 @@
         <v>184.1819766</v>
       </c>
       <c r="H536" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
@@ -18204,7 +20224,7 @@
         <v>190.1922766</v>
       </c>
       <c r="H537" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
@@ -18237,7 +20257,7 @@
         <v>194.7803766</v>
       </c>
       <c r="H538" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
@@ -18270,7 +20290,7 @@
         <v>194.7803766</v>
       </c>
       <c r="H539" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
@@ -18303,7 +20323,7 @@
         <v>194.3507766</v>
       </c>
       <c r="H540" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
@@ -18336,7 +20356,7 @@
         <v>193.7837766</v>
       </c>
       <c r="H541" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
@@ -18369,7 +20389,7 @@
         <v>193.7837766</v>
       </c>
       <c r="H542" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
@@ -18402,7 +20422,7 @@
         <v>193.7837766</v>
       </c>
       <c r="H543" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
@@ -18435,7 +20455,7 @@
         <v>194.6197697599999</v>
       </c>
       <c r="H544" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
@@ -18468,7 +20488,7 @@
         <v>192.7760375499999</v>
       </c>
       <c r="H545" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
@@ -18501,7 +20521,7 @@
         <v>198.8655375499999</v>
       </c>
       <c r="H546" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
@@ -18534,7 +20554,7 @@
         <v>201.9093331099999</v>
       </c>
       <c r="H547" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
@@ -18567,7 +20587,7 @@
         <v>208.0945609699999</v>
       </c>
       <c r="H548" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
@@ -18600,7 +20620,7 @@
         <v>204.3690314599999</v>
       </c>
       <c r="H549" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
@@ -18633,7 +20653,7 @@
         <v>215.4051260399999</v>
       </c>
       <c r="H550" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
@@ -18666,7 +20686,7 @@
         <v>220.9084245599999</v>
       </c>
       <c r="H551" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
@@ -18699,7 +20719,7 @@
         <v>220.9084245599999</v>
       </c>
       <c r="H552" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
@@ -18732,7 +20752,7 @@
         <v>218.8511245599999</v>
       </c>
       <c r="H553" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
@@ -18765,7 +20785,7 @@
         <v>216.1318245599999</v>
       </c>
       <c r="H554" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
@@ -18798,7 +20818,7 @@
         <v>217.0562169599999</v>
       </c>
       <c r="H555" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
@@ -18831,7 +20851,7 @@
         <v>213.6979923499999</v>
       </c>
       <c r="H556" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
@@ -18864,7 +20884,7 @@
         <v>210.4811923499999</v>
       </c>
       <c r="H557" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
@@ -18897,7 +20917,7 @@
         <v>208.8764923499999</v>
       </c>
       <c r="H558" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
@@ -18930,7 +20950,7 @@
         <v>210.8231021699999</v>
       </c>
       <c r="H559" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
@@ -18963,7 +20983,7 @@
         <v>209.1323094899999</v>
       </c>
       <c r="H560" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
@@ -18996,7 +21016,7 @@
         <v>214.8042168099999</v>
       </c>
       <c r="H561" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
@@ -19029,7 +21049,7 @@
         <v>210.6937787099999</v>
       </c>
       <c r="H562" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
@@ -19062,7 +21082,7 @@
         <v>212.9682787099999</v>
       </c>
       <c r="H563" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
@@ -19095,7 +21115,7 @@
         <v>209.1471787099998</v>
       </c>
       <c r="H564" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
@@ -19128,7 +21148,7 @@
         <v>209.1471787099998</v>
       </c>
       <c r="H565" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
@@ -19161,7 +21181,7 @@
         <v>205.8885787099998</v>
       </c>
       <c r="H566" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="inlineStr"/>
@@ -19194,7 +21214,7 @@
         <v>207.1874787099999</v>
       </c>
       <c r="H567" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="inlineStr"/>
@@ -19227,7 +21247,7 @@
         <v>206.3613012199999</v>
       </c>
       <c r="H568" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="inlineStr"/>
@@ -19260,7 +21280,7 @@
         <v>206.3613012199999</v>
       </c>
       <c r="H569" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr"/>
@@ -19293,7 +21313,7 @@
         <v>207.4645012199998</v>
       </c>
       <c r="H570" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="inlineStr"/>
@@ -19326,7 +21346,7 @@
         <v>206.7013012199998</v>
       </c>
       <c r="H571" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I571" t="inlineStr"/>
       <c r="J571" t="inlineStr"/>
@@ -19359,7 +21379,7 @@
         <v>207.8451012399998</v>
       </c>
       <c r="H572" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="inlineStr"/>
@@ -19392,7 +21412,7 @@
         <v>208.4910752499998</v>
       </c>
       <c r="H573" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I573" t="inlineStr"/>
       <c r="J573" t="inlineStr"/>
@@ -19425,7 +21445,7 @@
         <v>207.2857752499998</v>
       </c>
       <c r="H574" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I574" t="inlineStr"/>
       <c r="J574" t="inlineStr"/>
@@ -19458,7 +21478,7 @@
         <v>209.8205159099998</v>
       </c>
       <c r="H575" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="inlineStr"/>
@@ -19491,7 +21511,7 @@
         <v>210.6741552499998</v>
       </c>
       <c r="H576" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I576" t="inlineStr"/>
       <c r="J576" t="inlineStr"/>
@@ -19524,7 +21544,7 @@
         <v>208.6324552499999</v>
       </c>
       <c r="H577" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I577" t="inlineStr"/>
       <c r="J577" t="inlineStr"/>
@@ -19557,7 +21577,7 @@
         <v>210.4560186799999</v>
       </c>
       <c r="H578" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I578" t="inlineStr"/>
       <c r="J578" t="inlineStr"/>
@@ -19590,7 +21610,7 @@
         <v>209.8692186799998</v>
       </c>
       <c r="H579" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I579" t="inlineStr"/>
       <c r="J579" t="inlineStr"/>
@@ -19623,7 +21643,7 @@
         <v>213.6514186799998</v>
       </c>
       <c r="H580" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I580" t="inlineStr"/>
       <c r="J580" t="inlineStr"/>
@@ -19656,7 +21676,7 @@
         <v>208.0568186799998</v>
       </c>
       <c r="H581" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I581" t="inlineStr"/>
       <c r="J581" t="inlineStr"/>
@@ -23022,7 +25042,7 @@
         <v>167.2060661399999</v>
       </c>
       <c r="H683" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I683" t="inlineStr"/>
       <c r="J683" t="inlineStr"/>
@@ -23055,7 +25075,7 @@
         <v>167.2060661399999</v>
       </c>
       <c r="H684" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I684" t="inlineStr"/>
       <c r="J684" t="inlineStr"/>
@@ -23088,7 +25108,7 @@
         <v>168.8167058699999</v>
       </c>
       <c r="H685" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I685" t="inlineStr"/>
       <c r="J685" t="inlineStr"/>
@@ -23121,7 +25141,7 @@
         <v>168.2585058699999</v>
       </c>
       <c r="H686" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I686" t="inlineStr"/>
       <c r="J686" t="inlineStr"/>
@@ -23154,7 +25174,7 @@
         <v>169.0848058699999</v>
       </c>
       <c r="H687" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I687" t="inlineStr"/>
       <c r="J687" t="inlineStr"/>
@@ -23187,7 +25207,7 @@
         <v>171.1274058699999</v>
       </c>
       <c r="H688" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I688" t="inlineStr"/>
       <c r="J688" t="inlineStr"/>
@@ -23220,7 +25240,7 @@
         <v>173.0911381499999</v>
       </c>
       <c r="H689" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I689" t="inlineStr"/>
       <c r="J689" t="inlineStr"/>
@@ -23253,7 +25273,7 @@
         <v>174.8104890699999</v>
       </c>
       <c r="H690" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I690" t="inlineStr"/>
       <c r="J690" t="inlineStr"/>
@@ -23286,7 +25306,7 @@
         <v>176.0663058699999</v>
       </c>
       <c r="H691" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I691" t="inlineStr"/>
       <c r="J691" t="inlineStr"/>
@@ -23319,7 +25339,7 @@
         <v>177.7684027399999</v>
       </c>
       <c r="H692" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I692" t="inlineStr"/>
       <c r="J692" t="inlineStr"/>
@@ -23352,7 +25372,7 @@
         <v>175.5539194299999</v>
       </c>
       <c r="H693" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I693" t="inlineStr"/>
       <c r="J693" t="inlineStr"/>
@@ -23385,7 +25405,7 @@
         <v>175.1518194299999</v>
       </c>
       <c r="H694" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I694" t="inlineStr"/>
       <c r="J694" t="inlineStr"/>
@@ -23418,7 +25438,7 @@
         <v>174.4258194299999</v>
       </c>
       <c r="H695" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I695" t="inlineStr"/>
       <c r="J695" t="inlineStr"/>
@@ -23451,7 +25471,7 @@
         <v>175.5376578899999</v>
       </c>
       <c r="H696" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I696" t="inlineStr"/>
       <c r="J696" t="inlineStr"/>
@@ -23484,7 +25504,7 @@
         <v>175.5376578899999</v>
       </c>
       <c r="H697" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I697" t="inlineStr"/>
       <c r="J697" t="inlineStr"/>
@@ -23517,7 +25537,7 @@
         <v>173.0439578899999</v>
       </c>
       <c r="H698" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I698" t="inlineStr"/>
       <c r="J698" t="inlineStr"/>
@@ -27015,7 +29035,7 @@
         <v>163.7330007999999</v>
       </c>
       <c r="H804" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I804" t="inlineStr"/>
       <c r="J804" t="inlineStr"/>
@@ -29160,7 +31180,7 @@
         <v>70.28198203999987</v>
       </c>
       <c r="H869" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I869" t="inlineStr"/>
       <c r="J869" t="inlineStr"/>
@@ -29193,7 +31213,7 @@
         <v>69.15169244999987</v>
       </c>
       <c r="H870" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I870" t="inlineStr"/>
       <c r="J870" t="inlineStr"/>
@@ -29226,7 +31246,7 @@
         <v>71.55409244999987</v>
       </c>
       <c r="H871" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I871" t="inlineStr"/>
       <c r="J871" t="inlineStr"/>
@@ -29259,7 +31279,7 @@
         <v>74.60460254999987</v>
       </c>
       <c r="H872" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I872" t="inlineStr"/>
       <c r="J872" t="inlineStr"/>
@@ -29292,7 +31312,7 @@
         <v>74.60460254999987</v>
       </c>
       <c r="H873" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I873" t="inlineStr"/>
       <c r="J873" t="inlineStr"/>
@@ -29325,7 +31345,7 @@
         <v>78.97210254999987</v>
       </c>
       <c r="H874" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I874" t="inlineStr"/>
       <c r="J874" t="inlineStr"/>
@@ -29358,7 +31378,7 @@
         <v>76.31530254999987</v>
       </c>
       <c r="H875" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I875" t="inlineStr"/>
       <c r="J875" t="inlineStr"/>
@@ -29391,7 +31411,7 @@
         <v>81.43500254999987</v>
       </c>
       <c r="H876" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I876" t="inlineStr"/>
       <c r="J876" t="inlineStr"/>
@@ -29424,7 +31444,7 @@
         <v>82.45310254999987</v>
       </c>
       <c r="H877" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I877" t="inlineStr"/>
       <c r="J877" t="inlineStr"/>
@@ -29457,7 +31477,7 @@
         <v>85.93980254999987</v>
       </c>
       <c r="H878" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I878" t="inlineStr"/>
       <c r="J878" t="inlineStr"/>
@@ -29490,7 +31510,7 @@
         <v>85.93980254999987</v>
       </c>
       <c r="H879" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I879" t="inlineStr"/>
       <c r="J879" t="inlineStr"/>
@@ -29523,7 +31543,7 @@
         <v>78.95660254999987</v>
       </c>
       <c r="H880" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I880" t="inlineStr"/>
       <c r="J880" t="inlineStr"/>
@@ -29589,7 +31609,7 @@
         <v>77.62650515999988</v>
       </c>
       <c r="H882" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I882" t="inlineStr"/>
       <c r="J882" t="inlineStr"/>
@@ -29622,7 +31642,7 @@
         <v>80.11770515999989</v>
       </c>
       <c r="H883" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I883" t="inlineStr"/>
       <c r="J883" t="inlineStr"/>
@@ -29655,7 +31675,7 @@
         <v>80.11770515999989</v>
       </c>
       <c r="H884" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I884" t="inlineStr"/>
       <c r="J884" t="inlineStr"/>
@@ -29688,7 +31708,7 @@
         <v>82.25136520999989</v>
       </c>
       <c r="H885" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I885" t="inlineStr"/>
       <c r="J885" t="inlineStr"/>
@@ -29721,7 +31741,7 @@
         <v>85.3015031599999</v>
       </c>
       <c r="H886" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I886" t="inlineStr"/>
       <c r="J886" t="inlineStr"/>
@@ -29754,7 +31774,7 @@
         <v>86.6771031599999</v>
       </c>
       <c r="H887" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I887" t="inlineStr"/>
       <c r="J887" t="inlineStr"/>
@@ -29787,7 +31807,7 @@
         <v>89.3448031599999</v>
       </c>
       <c r="H888" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I888" t="inlineStr"/>
       <c r="J888" t="inlineStr"/>
@@ -29820,7 +31840,7 @@
         <v>86.3070365399999</v>
       </c>
       <c r="H889" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I889" t="inlineStr"/>
       <c r="J889" t="inlineStr"/>
@@ -29853,7 +31873,7 @@
         <v>82.99715630999989</v>
       </c>
       <c r="H890" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I890" t="inlineStr"/>
       <c r="J890" t="inlineStr"/>
@@ -29886,7 +31906,7 @@
         <v>81.5324563099999</v>
       </c>
       <c r="H891" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I891" t="inlineStr"/>
       <c r="J891" t="inlineStr"/>
@@ -29919,7 +31939,7 @@
         <v>85.13885630999989</v>
       </c>
       <c r="H892" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I892" t="inlineStr"/>
       <c r="J892" t="inlineStr"/>
@@ -29952,7 +31972,7 @@
         <v>81.2537662499999</v>
       </c>
       <c r="H893" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I893" t="inlineStr"/>
       <c r="J893" t="inlineStr"/>
@@ -29985,7 +32005,7 @@
         <v>84.3293640599999</v>
       </c>
       <c r="H894" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I894" t="inlineStr"/>
       <c r="J894" t="inlineStr"/>
@@ -30018,7 +32038,7 @@
         <v>85.61336412999991</v>
       </c>
       <c r="H895" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I895" t="inlineStr"/>
       <c r="J895" t="inlineStr"/>
@@ -30051,7 +32071,7 @@
         <v>85.40286639999991</v>
       </c>
       <c r="H896" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I896" t="inlineStr"/>
       <c r="J896" t="inlineStr"/>
@@ -30084,7 +32104,7 @@
         <v>86.4883663999999</v>
       </c>
       <c r="H897" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I897" t="inlineStr"/>
       <c r="J897" t="inlineStr"/>
@@ -30117,7 +32137,7 @@
         <v>86.4883663999999</v>
       </c>
       <c r="H898" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I898" t="inlineStr"/>
       <c r="J898" t="inlineStr"/>
@@ -30150,7 +32170,7 @@
         <v>75.3194685599999</v>
       </c>
       <c r="H899" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I899" t="inlineStr"/>
       <c r="J899" t="inlineStr"/>
@@ -30183,7 +32203,7 @@
         <v>72.34696855999991</v>
       </c>
       <c r="H900" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I900" t="inlineStr"/>
       <c r="J900" t="inlineStr"/>
@@ -30216,7 +32236,7 @@
         <v>71.69076855999991</v>
       </c>
       <c r="H901" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I901" t="inlineStr"/>
       <c r="J901" t="inlineStr"/>
@@ -30249,7 +32269,7 @@
         <v>71.69076855999991</v>
       </c>
       <c r="H902" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I902" t="inlineStr"/>
       <c r="J902" t="inlineStr"/>
@@ -30282,7 +32302,7 @@
         <v>71.14696855999991</v>
       </c>
       <c r="H903" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I903" t="inlineStr"/>
       <c r="J903" t="inlineStr"/>
@@ -30315,7 +32335,7 @@
         <v>69.28666855999991</v>
       </c>
       <c r="H904" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I904" t="inlineStr"/>
       <c r="J904" t="inlineStr"/>
@@ -30348,7 +32368,7 @@
         <v>68.92486855999991</v>
       </c>
       <c r="H905" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I905" t="inlineStr"/>
       <c r="J905" t="inlineStr"/>
@@ -30381,7 +32401,7 @@
         <v>66.8067431499999</v>
       </c>
       <c r="H906" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I906" t="inlineStr"/>
       <c r="J906" t="inlineStr"/>
@@ -30414,7 +32434,7 @@
         <v>66.5676431899999</v>
       </c>
       <c r="H907" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I907" t="inlineStr"/>
       <c r="J907" t="inlineStr"/>
@@ -30447,7 +32467,7 @@
         <v>67.7354418699999</v>
       </c>
       <c r="H908" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I908" t="inlineStr"/>
       <c r="J908" t="inlineStr"/>
@@ -30480,7 +32500,7 @@
         <v>67.7354418699999</v>
       </c>
       <c r="H909" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I909" t="inlineStr"/>
       <c r="J909" t="inlineStr"/>
@@ -30513,7 +32533,7 @@
         <v>68.6726965299999</v>
       </c>
       <c r="H910" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I910" t="inlineStr"/>
       <c r="J910" t="inlineStr"/>
@@ -30546,7 +32566,7 @@
         <v>67.59500267999989</v>
       </c>
       <c r="H911" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I911" t="inlineStr"/>
       <c r="J911" t="inlineStr"/>
@@ -30579,7 +32599,7 @@
         <v>67.59500267999989</v>
       </c>
       <c r="H912" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I912" t="inlineStr"/>
       <c r="J912" t="inlineStr"/>
@@ -30612,7 +32632,7 @@
         <v>67.59500267999989</v>
       </c>
       <c r="H913" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I913" t="inlineStr"/>
       <c r="J913" t="inlineStr"/>
@@ -30645,7 +32665,7 @@
         <v>66.9338026799999</v>
       </c>
       <c r="H914" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I914" t="inlineStr"/>
       <c r="J914" t="inlineStr"/>
@@ -30678,7 +32698,7 @@
         <v>65.97795916999991</v>
       </c>
       <c r="H915" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I915" t="inlineStr"/>
       <c r="J915" t="inlineStr"/>
@@ -30711,7 +32731,7 @@
         <v>63.91615916999991</v>
       </c>
       <c r="H916" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I916" t="inlineStr"/>
       <c r="J916" t="inlineStr"/>
@@ -30744,7 +32764,7 @@
         <v>62.54875916999991</v>
       </c>
       <c r="H917" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I917" t="inlineStr"/>
       <c r="J917" t="inlineStr"/>
@@ -30777,7 +32797,7 @@
         <v>64.50445871999992</v>
       </c>
       <c r="H918" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I918" t="inlineStr"/>
       <c r="J918" t="inlineStr"/>
@@ -30810,7 +32830,7 @@
         <v>64.33915871999992</v>
       </c>
       <c r="H919" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I919" t="inlineStr"/>
       <c r="J919" t="inlineStr"/>
@@ -30843,7 +32863,7 @@
         <v>65.42985871999991</v>
       </c>
       <c r="H920" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I920" t="inlineStr"/>
       <c r="J920" t="inlineStr"/>
@@ -30876,7 +32896,7 @@
         <v>64.55885664999991</v>
       </c>
       <c r="H921" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I921" t="inlineStr"/>
       <c r="J921" t="inlineStr"/>
@@ -30909,7 +32929,7 @@
         <v>64.93355664999991</v>
       </c>
       <c r="H922" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I922" t="inlineStr"/>
       <c r="J922" t="inlineStr"/>
@@ -30942,7 +32962,7 @@
         <v>66.87805664999992</v>
       </c>
       <c r="H923" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I923" t="inlineStr"/>
       <c r="J923" t="inlineStr"/>
@@ -30975,7 +32995,7 @@
         <v>66.60255799999992</v>
       </c>
       <c r="H924" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I924" t="inlineStr"/>
       <c r="J924" t="inlineStr"/>
@@ -31008,7 +33028,7 @@
         <v>67.04045799999992</v>
       </c>
       <c r="H925" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I925" t="inlineStr"/>
       <c r="J925" t="inlineStr"/>
@@ -31041,7 +33061,7 @@
         <v>67.04045799999992</v>
       </c>
       <c r="H926" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I926" t="inlineStr"/>
       <c r="J926" t="inlineStr"/>
@@ -31074,7 +33094,7 @@
         <v>71.97975976999992</v>
       </c>
       <c r="H927" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I927" t="inlineStr"/>
       <c r="J927" t="inlineStr"/>
@@ -32988,17 +35008,11 @@
         <v>81.55534554999991</v>
       </c>
       <c r="H985" t="n">
-        <v>1</v>
-      </c>
-      <c r="I985" t="n">
-        <v>10002000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I985" t="inlineStr"/>
       <c r="J985" t="inlineStr"/>
-      <c r="K985" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K985" t="inlineStr"/>
       <c r="L985" t="n">
         <v>1</v>
       </c>
@@ -33031,11 +35045,7 @@
       </c>
       <c r="I986" t="inlineStr"/>
       <c r="J986" t="inlineStr"/>
-      <c r="K986" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K986" t="inlineStr"/>
       <c r="L986" t="n">
         <v>1</v>
       </c>
@@ -33068,11 +35078,7 @@
       </c>
       <c r="I987" t="inlineStr"/>
       <c r="J987" t="inlineStr"/>
-      <c r="K987" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K987" t="inlineStr"/>
       <c r="L987" t="n">
         <v>1</v>
       </c>
@@ -33101,17 +35107,11 @@
         <v>81.55534554999991</v>
       </c>
       <c r="H988" t="n">
-        <v>1</v>
-      </c>
-      <c r="I988" t="n">
-        <v>10005000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I988" t="inlineStr"/>
       <c r="J988" t="inlineStr"/>
-      <c r="K988" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K988" t="inlineStr"/>
       <c r="L988" t="n">
         <v>1</v>
       </c>
@@ -33140,17 +35140,11 @@
         <v>81.55534554999991</v>
       </c>
       <c r="H989" t="n">
-        <v>1</v>
-      </c>
-      <c r="I989" t="n">
-        <v>10005000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I989" t="inlineStr"/>
       <c r="J989" t="inlineStr"/>
-      <c r="K989" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K989" t="inlineStr"/>
       <c r="L989" t="n">
         <v>1</v>
       </c>
@@ -33183,11 +35177,7 @@
       </c>
       <c r="I990" t="inlineStr"/>
       <c r="J990" t="inlineStr"/>
-      <c r="K990" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K990" t="inlineStr"/>
       <c r="L990" t="n">
         <v>1</v>
       </c>
@@ -33220,11 +35210,7 @@
       </c>
       <c r="I991" t="inlineStr"/>
       <c r="J991" t="inlineStr"/>
-      <c r="K991" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K991" t="inlineStr"/>
       <c r="L991" t="n">
         <v>1</v>
       </c>
@@ -33253,17 +35239,11 @@
         <v>73.10884755999992</v>
       </c>
       <c r="H992" t="n">
-        <v>1</v>
-      </c>
-      <c r="I992" t="n">
-        <v>10004000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I992" t="inlineStr"/>
       <c r="J992" t="inlineStr"/>
-      <c r="K992" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K992" t="inlineStr"/>
       <c r="L992" t="n">
         <v>1</v>
       </c>
@@ -33292,17 +35272,11 @@
         <v>76.70574755999992</v>
       </c>
       <c r="H993" t="n">
-        <v>1</v>
-      </c>
-      <c r="I993" t="n">
-        <v>10003000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I993" t="inlineStr"/>
       <c r="J993" t="inlineStr"/>
-      <c r="K993" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K993" t="inlineStr"/>
       <c r="L993" t="n">
         <v>1</v>
       </c>
@@ -33335,11 +35309,7 @@
       </c>
       <c r="I994" t="inlineStr"/>
       <c r="J994" t="inlineStr"/>
-      <c r="K994" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K994" t="inlineStr"/>
       <c r="L994" t="n">
         <v>1</v>
       </c>
@@ -33372,11 +35342,7 @@
       </c>
       <c r="I995" t="inlineStr"/>
       <c r="J995" t="inlineStr"/>
-      <c r="K995" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K995" t="inlineStr"/>
       <c r="L995" t="n">
         <v>1</v>
       </c>
@@ -33405,17 +35371,11 @@
         <v>85.80214755999992</v>
       </c>
       <c r="H996" t="n">
-        <v>1</v>
-      </c>
-      <c r="I996" t="n">
-        <v>10015000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I996" t="inlineStr"/>
       <c r="J996" t="inlineStr"/>
-      <c r="K996" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K996" t="inlineStr"/>
       <c r="L996" t="n">
         <v>1</v>
       </c>
@@ -33448,11 +35408,7 @@
       </c>
       <c r="I997" t="inlineStr"/>
       <c r="J997" t="inlineStr"/>
-      <c r="K997" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K997" t="inlineStr"/>
       <c r="L997" t="n">
         <v>1</v>
       </c>
@@ -33485,11 +35441,7 @@
       </c>
       <c r="I998" t="inlineStr"/>
       <c r="J998" t="inlineStr"/>
-      <c r="K998" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K998" t="inlineStr"/>
       <c r="L998" t="n">
         <v>1</v>
       </c>
@@ -33522,11 +35474,7 @@
       </c>
       <c r="I999" t="inlineStr"/>
       <c r="J999" t="inlineStr"/>
-      <c r="K999" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K999" t="inlineStr"/>
       <c r="L999" t="n">
         <v>1</v>
       </c>
@@ -33559,11 +35507,7 @@
       </c>
       <c r="I1000" t="inlineStr"/>
       <c r="J1000" t="inlineStr"/>
-      <c r="K1000" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1000" t="inlineStr"/>
       <c r="L1000" t="n">
         <v>1</v>
       </c>
@@ -33596,11 +35540,7 @@
       </c>
       <c r="I1001" t="inlineStr"/>
       <c r="J1001" t="inlineStr"/>
-      <c r="K1001" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1001" t="inlineStr"/>
       <c r="L1001" t="n">
         <v>1</v>
       </c>
@@ -33633,11 +35573,7 @@
       </c>
       <c r="I1002" t="inlineStr"/>
       <c r="J1002" t="inlineStr"/>
-      <c r="K1002" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1002" t="inlineStr"/>
       <c r="L1002" t="n">
         <v>1</v>
       </c>
@@ -33670,11 +35606,7 @@
       </c>
       <c r="I1003" t="inlineStr"/>
       <c r="J1003" t="inlineStr"/>
-      <c r="K1003" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1003" t="inlineStr"/>
       <c r="L1003" t="n">
         <v>1</v>
       </c>
@@ -33707,11 +35639,7 @@
       </c>
       <c r="I1004" t="inlineStr"/>
       <c r="J1004" t="inlineStr"/>
-      <c r="K1004" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1004" t="inlineStr"/>
       <c r="L1004" t="n">
         <v>1</v>
       </c>
@@ -33744,11 +35672,7 @@
       </c>
       <c r="I1005" t="inlineStr"/>
       <c r="J1005" t="inlineStr"/>
-      <c r="K1005" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1005" t="inlineStr"/>
       <c r="L1005" t="n">
         <v>1</v>
       </c>
@@ -33781,11 +35705,7 @@
       </c>
       <c r="I1006" t="inlineStr"/>
       <c r="J1006" t="inlineStr"/>
-      <c r="K1006" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1006" t="inlineStr"/>
       <c r="L1006" t="n">
         <v>1</v>
       </c>
@@ -33818,11 +35738,7 @@
       </c>
       <c r="I1007" t="inlineStr"/>
       <c r="J1007" t="inlineStr"/>
-      <c r="K1007" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1007" t="inlineStr"/>
       <c r="L1007" t="n">
         <v>1</v>
       </c>
@@ -33855,11 +35771,7 @@
       </c>
       <c r="I1008" t="inlineStr"/>
       <c r="J1008" t="inlineStr"/>
-      <c r="K1008" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1008" t="inlineStr"/>
       <c r="L1008" t="n">
         <v>1</v>
       </c>
@@ -33892,11 +35804,7 @@
       </c>
       <c r="I1009" t="inlineStr"/>
       <c r="J1009" t="inlineStr"/>
-      <c r="K1009" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1009" t="inlineStr"/>
       <c r="L1009" t="n">
         <v>1</v>
       </c>
@@ -33929,11 +35837,7 @@
       </c>
       <c r="I1010" t="inlineStr"/>
       <c r="J1010" t="inlineStr"/>
-      <c r="K1010" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1010" t="inlineStr"/>
       <c r="L1010" t="n">
         <v>1</v>
       </c>
@@ -33966,11 +35870,7 @@
       </c>
       <c r="I1011" t="inlineStr"/>
       <c r="J1011" t="inlineStr"/>
-      <c r="K1011" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1011" t="inlineStr"/>
       <c r="L1011" t="n">
         <v>1</v>
       </c>
@@ -34003,11 +35903,7 @@
       </c>
       <c r="I1012" t="inlineStr"/>
       <c r="J1012" t="inlineStr"/>
-      <c r="K1012" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1012" t="inlineStr"/>
       <c r="L1012" t="n">
         <v>1</v>
       </c>
@@ -34040,11 +35936,7 @@
       </c>
       <c r="I1013" t="inlineStr"/>
       <c r="J1013" t="inlineStr"/>
-      <c r="K1013" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1013" t="inlineStr"/>
       <c r="L1013" t="n">
         <v>1</v>
       </c>
@@ -34077,11 +35969,7 @@
       </c>
       <c r="I1014" t="inlineStr"/>
       <c r="J1014" t="inlineStr"/>
-      <c r="K1014" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1014" t="inlineStr"/>
       <c r="L1014" t="n">
         <v>1</v>
       </c>
@@ -34114,11 +36002,7 @@
       </c>
       <c r="I1015" t="inlineStr"/>
       <c r="J1015" t="inlineStr"/>
-      <c r="K1015" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1015" t="inlineStr"/>
       <c r="L1015" t="n">
         <v>1</v>
       </c>
@@ -34151,11 +36035,7 @@
       </c>
       <c r="I1016" t="inlineStr"/>
       <c r="J1016" t="inlineStr"/>
-      <c r="K1016" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1016" t="inlineStr"/>
       <c r="L1016" t="n">
         <v>1</v>
       </c>
@@ -34188,11 +36068,7 @@
       </c>
       <c r="I1017" t="inlineStr"/>
       <c r="J1017" t="inlineStr"/>
-      <c r="K1017" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1017" t="inlineStr"/>
       <c r="L1017" t="n">
         <v>1</v>
       </c>
@@ -34225,11 +36101,7 @@
       </c>
       <c r="I1018" t="inlineStr"/>
       <c r="J1018" t="inlineStr"/>
-      <c r="K1018" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1018" t="inlineStr"/>
       <c r="L1018" t="n">
         <v>1</v>
       </c>
@@ -34262,11 +36134,7 @@
       </c>
       <c r="I1019" t="inlineStr"/>
       <c r="J1019" t="inlineStr"/>
-      <c r="K1019" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1019" t="inlineStr"/>
       <c r="L1019" t="n">
         <v>1</v>
       </c>
@@ -34299,11 +36167,7 @@
       </c>
       <c r="I1020" t="inlineStr"/>
       <c r="J1020" t="inlineStr"/>
-      <c r="K1020" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1020" t="inlineStr"/>
       <c r="L1020" t="n">
         <v>1</v>
       </c>
@@ -34336,11 +36200,7 @@
       </c>
       <c r="I1021" t="inlineStr"/>
       <c r="J1021" t="inlineStr"/>
-      <c r="K1021" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1021" t="inlineStr"/>
       <c r="L1021" t="n">
         <v>1</v>
       </c>
@@ -34373,11 +36233,7 @@
       </c>
       <c r="I1022" t="inlineStr"/>
       <c r="J1022" t="inlineStr"/>
-      <c r="K1022" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1022" t="inlineStr"/>
       <c r="L1022" t="n">
         <v>1</v>
       </c>
@@ -34410,11 +36266,7 @@
       </c>
       <c r="I1023" t="inlineStr"/>
       <c r="J1023" t="inlineStr"/>
-      <c r="K1023" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1023" t="inlineStr"/>
       <c r="L1023" t="n">
         <v>1</v>
       </c>
@@ -34447,11 +36299,7 @@
       </c>
       <c r="I1024" t="inlineStr"/>
       <c r="J1024" t="inlineStr"/>
-      <c r="K1024" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1024" t="inlineStr"/>
       <c r="L1024" t="n">
         <v>1</v>
       </c>
@@ -34484,11 +36332,7 @@
       </c>
       <c r="I1025" t="inlineStr"/>
       <c r="J1025" t="inlineStr"/>
-      <c r="K1025" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1025" t="inlineStr"/>
       <c r="L1025" t="n">
         <v>1</v>
       </c>
@@ -34521,11 +36365,7 @@
       </c>
       <c r="I1026" t="inlineStr"/>
       <c r="J1026" t="inlineStr"/>
-      <c r="K1026" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1026" t="inlineStr"/>
       <c r="L1026" t="n">
         <v>1</v>
       </c>
@@ -34558,11 +36398,7 @@
       </c>
       <c r="I1027" t="inlineStr"/>
       <c r="J1027" t="inlineStr"/>
-      <c r="K1027" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1027" t="inlineStr"/>
       <c r="L1027" t="n">
         <v>1</v>
       </c>
@@ -34591,16 +36427,14 @@
         <v>84.04184210999995</v>
       </c>
       <c r="H1028" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1028" t="inlineStr"/>
       <c r="J1028" t="inlineStr"/>
-      <c r="K1028" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L1028" t="inlineStr"/>
+      <c r="K1028" t="inlineStr"/>
+      <c r="L1028" t="n">
+        <v>1</v>
+      </c>
       <c r="M1028" t="inlineStr"/>
     </row>
     <row r="1029">
@@ -34758,7 +36592,7 @@
         <v>83.06100816999997</v>
       </c>
       <c r="H1033" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1033" t="inlineStr"/>
       <c r="J1033" t="inlineStr"/>
@@ -34824,7 +36658,7 @@
         <v>82.85770816999997</v>
       </c>
       <c r="H1035" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1035" t="inlineStr"/>
       <c r="J1035" t="inlineStr"/>
@@ -34857,7 +36691,7 @@
         <v>80.95290816999997</v>
       </c>
       <c r="H1036" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1036" t="inlineStr"/>
       <c r="J1036" t="inlineStr"/>
@@ -34890,7 +36724,7 @@
         <v>81.48440816999997</v>
       </c>
       <c r="H1037" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1037" t="inlineStr"/>
       <c r="J1037" t="inlineStr"/>
@@ -34923,7 +36757,7 @@
         <v>80.21770816999997</v>
       </c>
       <c r="H1038" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1038" t="inlineStr"/>
       <c r="J1038" t="inlineStr"/>
@@ -34956,7 +36790,7 @@
         <v>80.43630816999996</v>
       </c>
       <c r="H1039" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1039" t="inlineStr"/>
       <c r="J1039" t="inlineStr"/>
@@ -34989,7 +36823,7 @@
         <v>81.56010648999997</v>
       </c>
       <c r="H1040" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1040" t="inlineStr"/>
       <c r="J1040" t="inlineStr"/>
@@ -35022,7 +36856,7 @@
         <v>84.51450648999997</v>
       </c>
       <c r="H1041" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1041" t="inlineStr"/>
       <c r="J1041" t="inlineStr"/>
@@ -35055,7 +36889,7 @@
         <v>86.81270648999997</v>
       </c>
       <c r="H1042" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1042" t="inlineStr"/>
       <c r="J1042" t="inlineStr"/>
@@ -35088,7 +36922,7 @@
         <v>86.81270648999997</v>
       </c>
       <c r="H1043" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1043" t="inlineStr"/>
       <c r="J1043" t="inlineStr"/>
@@ -35121,7 +36955,7 @@
         <v>88.35070648999996</v>
       </c>
       <c r="H1044" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1044" t="inlineStr"/>
       <c r="J1044" t="inlineStr"/>
@@ -35154,7 +36988,7 @@
         <v>88.35070648999996</v>
       </c>
       <c r="H1045" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1045" t="inlineStr"/>
       <c r="J1045" t="inlineStr"/>
@@ -35187,7 +37021,7 @@
         <v>88.35070648999996</v>
       </c>
       <c r="H1046" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1046" t="inlineStr"/>
       <c r="J1046" t="inlineStr"/>
@@ -38949,7 +40783,7 @@
         <v>101.6313165999999</v>
       </c>
       <c r="H1160" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1160" t="inlineStr"/>
       <c r="J1160" t="inlineStr"/>
@@ -43437,7 +45271,7 @@
         <v>185.2834129799999</v>
       </c>
       <c r="H1296" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1296" t="inlineStr"/>
       <c r="J1296" t="inlineStr"/>
@@ -43470,7 +45304,7 @@
         <v>180.1831129799999</v>
       </c>
       <c r="H1297" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1297" t="inlineStr"/>
       <c r="J1297" t="inlineStr"/>
@@ -43503,7 +45337,7 @@
         <v>177.5213129699999</v>
       </c>
       <c r="H1298" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1298" t="inlineStr"/>
       <c r="J1298" t="inlineStr"/>
@@ -43569,7 +45403,7 @@
         <v>175.2538129699998</v>
       </c>
       <c r="H1300" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1300" t="inlineStr"/>
       <c r="J1300" t="inlineStr"/>
@@ -43701,7 +45535,7 @@
         <v>170.1878129699999</v>
       </c>
       <c r="H1304" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1304" t="inlineStr"/>
       <c r="J1304" t="inlineStr"/>
@@ -44097,7 +45931,7 @@
         <v>164.1193709499999</v>
       </c>
       <c r="H1316" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1316" t="inlineStr"/>
       <c r="J1316" t="inlineStr"/>
@@ -44163,7 +45997,7 @@
         <v>163.2435765999999</v>
       </c>
       <c r="H1318" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1318" t="inlineStr"/>
       <c r="J1318" t="inlineStr"/>
@@ -44229,7 +46063,7 @@
         <v>158.7443765999999</v>
       </c>
       <c r="H1320" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1320" t="inlineStr"/>
       <c r="J1320" t="inlineStr"/>
@@ -45153,7 +46987,7 @@
         <v>224.4259641899999</v>
       </c>
       <c r="H1348" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1348" t="inlineStr"/>
       <c r="J1348" t="inlineStr"/>
@@ -45186,7 +47020,7 @@
         <v>225.4327641899999</v>
       </c>
       <c r="H1349" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1349" t="inlineStr"/>
       <c r="J1349" t="inlineStr"/>
@@ -45219,7 +47053,7 @@
         <v>229.3667306299999</v>
       </c>
       <c r="H1350" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1350" t="inlineStr"/>
       <c r="J1350" t="inlineStr"/>
@@ -45252,7 +47086,7 @@
         <v>231.8286642199999</v>
       </c>
       <c r="H1351" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1351" t="inlineStr"/>
       <c r="J1351" t="inlineStr"/>
@@ -45285,7 +47119,7 @@
         <v>228.7577642199999</v>
       </c>
       <c r="H1352" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1352" t="inlineStr"/>
       <c r="J1352" t="inlineStr"/>
@@ -45318,7 +47152,7 @@
         <v>225.8033642199999</v>
       </c>
       <c r="H1353" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1353" t="inlineStr"/>
       <c r="J1353" t="inlineStr"/>
@@ -45351,7 +47185,7 @@
         <v>228.5563642199999</v>
       </c>
       <c r="H1354" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1354" t="inlineStr"/>
       <c r="J1354" t="inlineStr"/>
